--- a/new_data/data_for_regression.xlsx
+++ b/new_data/data_for_regression.xlsx
@@ -40,7 +40,7 @@
     <t>time</t>
   </si>
   <si>
-    <t>delta_5</t>
+    <t>const_delta_5</t>
   </si>
   <si>
     <t>vol_pre</t>
@@ -516,7 +516,7 @@
         <v>2.302585092994046</v>
       </c>
       <c r="J2">
-        <v>0.5226279762858551</v>
+        <v>0.5288521123496954</v>
       </c>
       <c r="K2">
         <v>-0.007770551895069269</v>
@@ -575,7 +575,7 @@
         <v>2.19722457733622</v>
       </c>
       <c r="J3">
-        <v>0.5953528094823225</v>
+        <v>0.5852401787932183</v>
       </c>
       <c r="K3">
         <v>-0.005805439416383607</v>
@@ -634,7 +634,7 @@
         <v>2.70805020110221</v>
       </c>
       <c r="J4">
-        <v>0.1415121359786913</v>
+        <v>0.1739409688788778</v>
       </c>
       <c r="K4">
         <v>-0.0009195700021081207</v>
@@ -693,7 +693,7 @@
         <v>3.912023005428146</v>
       </c>
       <c r="J5">
-        <v>0.3198764430552868</v>
+        <v>0.3507343550857979</v>
       </c>
       <c r="K5">
         <v>-0.028306121817441</v>
@@ -752,7 +752,7 @@
         <v>3.912023005428146</v>
       </c>
       <c r="J6">
-        <v>-0.5070920416600921</v>
+        <v>-0.4927425736057867</v>
       </c>
       <c r="K6">
         <v>-0.04652662902029821</v>
@@ -811,7 +811,7 @@
         <v>2.564949357461537</v>
       </c>
       <c r="J7">
-        <v>-0.4904990873087737</v>
+        <v>-0.4816523321123298</v>
       </c>
       <c r="K7">
         <v>0.01130703036973851</v>
@@ -870,7 +870,7 @@
         <v>2.484906649788</v>
       </c>
       <c r="J8">
-        <v>0.1032589022372697</v>
+        <v>0.1298649241569166</v>
       </c>
       <c r="K8">
         <v>-0.007141857496513665</v>
@@ -929,7 +929,7 @@
         <v>3.850147601710058</v>
       </c>
       <c r="J9">
-        <v>0.3038679651115046</v>
+        <v>0.3319422351107372</v>
       </c>
       <c r="K9">
         <v>-0.038224223977552</v>
@@ -988,7 +988,7 @@
         <v>2.484906649788</v>
       </c>
       <c r="J10">
-        <v>0.3607225712398405</v>
+        <v>0.3792665853750453</v>
       </c>
       <c r="K10">
         <v>-0.01633526392996569</v>
@@ -1047,7 +1047,7 @@
         <v>2.484906649788</v>
       </c>
       <c r="J11">
-        <v>-0.2450510940006645</v>
+        <v>-0.2614840203169906</v>
       </c>
       <c r="K11">
         <v>-0.006312574049831869</v>
@@ -1106,7 +1106,7 @@
         <v>3.828641396489095</v>
       </c>
       <c r="J12">
-        <v>-0.3024580002113162</v>
+        <v>-0.3103074322973053</v>
       </c>
       <c r="K12">
         <v>-0.03089739835760592</v>
@@ -1165,7 +1165,7 @@
         <v>2.302585092994046</v>
       </c>
       <c r="J13">
-        <v>-0.3488234404314047</v>
+        <v>-0.3519601670167883</v>
       </c>
       <c r="K13">
         <v>-0.001333208079252288</v>
@@ -1224,7 +1224,7 @@
         <v>3.80666248977032</v>
       </c>
       <c r="J14">
-        <v>0.451736214077232</v>
+        <v>0.4577062934773333</v>
       </c>
       <c r="K14">
         <v>-0.03112120629375568</v>
@@ -1283,7 +1283,7 @@
         <v>2.302585092994046</v>
       </c>
       <c r="J15">
-        <v>0.6511765595685953</v>
+        <v>0.6480398329832117</v>
       </c>
       <c r="K15">
         <v>-0.02172836464485385</v>
@@ -1342,7 +1342,7 @@
         <v>3.80666248977032</v>
       </c>
       <c r="J16">
-        <v>-0.205088325035955</v>
+        <v>-0.2102238549148554</v>
       </c>
       <c r="K16">
         <v>-0.0310118960995768</v>
@@ -1401,7 +1401,7 @@
         <v>2.19722457733622</v>
       </c>
       <c r="J17">
-        <v>-0.1790003107819753</v>
+        <v>-0.181120222625929</v>
       </c>
       <c r="K17">
         <v>0.0001088992334881064</v>
@@ -1460,7 +1460,7 @@
         <v>2.19722457733622</v>
       </c>
       <c r="J18">
-        <v>0.4851806659169677</v>
+        <v>0.4859146507080422</v>
       </c>
       <c r="K18">
         <v>-0.0215645652497885</v>
@@ -1519,7 +1519,7 @@
         <v>3.784189633918261</v>
       </c>
       <c r="J19">
-        <v>0.5483587647787684</v>
+        <v>0.5491342129274923</v>
       </c>
       <c r="K19">
         <v>-0.03116852526132928</v>
@@ -1578,7 +1578,7 @@
         <v>2.079441541679836</v>
       </c>
       <c r="J20">
-        <v>0.788896205153385</v>
+        <v>0.7881503622383547</v>
       </c>
       <c r="K20">
         <v>-0.003429752103231209</v>
@@ -1637,7 +1637,7 @@
         <v>2.079441541679836</v>
       </c>
       <c r="J21">
-        <v>0.4187437246158181</v>
+        <v>0.4192516378421505</v>
       </c>
       <c r="K21">
         <v>0.02146630833366925</v>
@@ -1696,7 +1696,7 @@
         <v>2.079441541679836</v>
       </c>
       <c r="J22">
-        <v>0.9753453753436522</v>
+        <v>0.9749350871435182</v>
       </c>
       <c r="K22">
         <v>0.1088037354803304</v>
@@ -1755,7 +1755,7 @@
         <v>3.737669618283368</v>
       </c>
       <c r="J23">
-        <v>0.533084582163486</v>
+        <v>0.5334959937370108</v>
       </c>
       <c r="K23">
         <v>-0.03442236044770368</v>
@@ -1814,7 +1814,7 @@
         <v>3.663561646129646</v>
       </c>
       <c r="J24">
-        <v>0.5769904623704423</v>
+        <v>0.5773959659416337</v>
       </c>
       <c r="K24">
         <v>-0.02512761080573617</v>
@@ -1873,7 +1873,7 @@
         <v>3.663561646129646</v>
       </c>
       <c r="J25">
-        <v>0.8818257552060105</v>
+        <v>0.8799485361281069</v>
       </c>
       <c r="K25">
         <v>-0.01197842627281527</v>
@@ -1932,7 +1932,7 @@
         <v>3.555348061489414</v>
       </c>
       <c r="J26">
-        <v>-0.3067912412070719</v>
+        <v>-0.310232567351087</v>
       </c>
       <c r="K26">
         <v>-0.02144997497690389</v>
@@ -1991,7 +1991,7 @@
         <v>5.988961416889864</v>
       </c>
       <c r="J27">
-        <v>0.6433828958368053</v>
+        <v>0.6519991825349982</v>
       </c>
       <c r="K27">
         <v>-0.006932319032740004</v>
@@ -2050,7 +2050,7 @@
         <v>5.986452005284438</v>
       </c>
       <c r="J28">
-        <v>0.6685412810849398</v>
+        <v>0.6748640441130587</v>
       </c>
       <c r="K28">
         <v>-0.00468964402597382</v>
@@ -2109,7 +2109,7 @@
         <v>3.465735902799727</v>
       </c>
       <c r="J29">
-        <v>0.8532071190270081</v>
+        <v>0.8438198131238348</v>
       </c>
       <c r="K29">
         <v>-0.04319386536994611</v>
@@ -2168,7 +2168,7 @@
         <v>5.365976015021851</v>
       </c>
       <c r="J30">
-        <v>-0.3518042865255601</v>
+        <v>-0.3463738950391905</v>
       </c>
       <c r="K30">
         <v>-0.009159338866295552</v>
@@ -2227,7 +2227,7 @@
         <v>3.433987204485146</v>
       </c>
       <c r="J31">
-        <v>-0.1612355210518976</v>
+        <v>-0.1694013831322937</v>
       </c>
       <c r="K31">
         <v>-0.02521000380764601</v>
@@ -2286,7 +2286,7 @@
         <v>3.433987204485146</v>
       </c>
       <c r="J32">
-        <v>0.9838047548166654</v>
+        <v>0.9800685776475389</v>
       </c>
       <c r="K32">
         <v>0.05181517907237923</v>
@@ -2345,7 +2345,7 @@
         <v>4.787491742782046</v>
       </c>
       <c r="J33">
-        <v>0.6804060137460622</v>
+        <v>0.6808911851339086</v>
       </c>
       <c r="K33">
         <v>-0.02487043538196838</v>
@@ -2404,7 +2404,7 @@
         <v>4.762173934797756</v>
       </c>
       <c r="J34">
-        <v>-0.2771864924747541</v>
+        <v>-0.2785052670495238</v>
       </c>
       <c r="K34">
         <v>-0.01447369268305448</v>
@@ -2463,7 +2463,7 @@
         <v>3.218875824868201</v>
       </c>
       <c r="J35">
-        <v>-0.4614474716071413</v>
+        <v>-0.4591732247479561</v>
       </c>
       <c r="K35">
         <v>-0.0196375719568458</v>
@@ -2522,7 +2522,7 @@
         <v>3.218875824868201</v>
       </c>
       <c r="J36">
-        <v>0.5385525283928587</v>
+        <v>0.5408267752520439</v>
       </c>
       <c r="K36">
         <v>-0.0350852847163616</v>
@@ -2581,7 +2581,7 @@
         <v>3.218875824868201</v>
       </c>
       <c r="J37">
-        <v>-0.1822196819365343</v>
+        <v>-0.1900122366343056</v>
       </c>
       <c r="K37">
         <v>-0.02812327510338304</v>
@@ -2640,7 +2640,7 @@
         <v>5.961005339623274</v>
       </c>
       <c r="J38">
-        <v>0.8195197428587649</v>
+        <v>0.8175379203065545</v>
       </c>
       <c r="K38">
         <v>-0.02122925146460742</v>
@@ -2699,7 +2699,7 @@
         <v>3.178053830347946</v>
       </c>
       <c r="J39">
-        <v>0.5876249446874469</v>
+        <v>0.5866408101596863</v>
       </c>
       <c r="K39">
         <v>-0.05640989319730799</v>
@@ -2758,7 +2758,7 @@
         <v>3.13549421592915</v>
       </c>
       <c r="J40">
-        <v>-0.2297605440700353</v>
+        <v>-0.1813290636024514</v>
       </c>
       <c r="K40">
         <v>0.02783031291128345</v>
@@ -2817,7 +2817,7 @@
         <v>5.953243334287785</v>
       </c>
       <c r="J41">
-        <v>0.8470389443405192</v>
+        <v>0.83415995288678</v>
       </c>
       <c r="K41">
         <v>0.01136180832232567</v>
@@ -2876,7 +2876,7 @@
         <v>2.94443897916644</v>
       </c>
       <c r="J42">
-        <v>-0.2825232449147472</v>
+        <v>-0.2396038881875417</v>
       </c>
       <c r="K42">
         <v>0.03744183744431288</v>
@@ -2935,7 +2935,7 @@
         <v>2.94443897916644</v>
       </c>
       <c r="J43">
-        <v>-0.2074005315072112</v>
+        <v>-0.148213449219571</v>
       </c>
       <c r="K43">
         <v>0.02825525478297575</v>
@@ -2994,7 +2994,7 @@
         <v>2.890371757896165</v>
       </c>
       <c r="J44">
-        <v>-0.16927926265274</v>
+        <v>-0.1138768879471324</v>
       </c>
       <c r="K44">
         <v>0.01108870036812103</v>
@@ -3053,7 +3053,7 @@
         <v>2.833213344056216</v>
       </c>
       <c r="J45">
-        <v>0.9064453663609373</v>
+        <v>0.9575066291069199</v>
       </c>
       <c r="K45">
         <v>0.04888069019202582</v>
@@ -3112,7 +3112,7 @@
         <v>2.833213344056216</v>
       </c>
       <c r="J46">
-        <v>0.9977810209300527</v>
+        <v>0.9999314765222785</v>
       </c>
       <c r="K46">
         <v>0.06910547331531905</v>
@@ -3171,7 +3171,7 @@
         <v>5.932245187448011</v>
       </c>
       <c r="J47">
-        <v>0.9591987434432256</v>
+        <v>0.9763258351537596</v>
       </c>
       <c r="K47">
         <v>0.04038499847439709</v>
@@ -3230,7 +3230,7 @@
         <v>2.302585092994046</v>
       </c>
       <c r="J48">
-        <v>-0.2790312869020077</v>
+        <v>-0.2191659614272317</v>
       </c>
       <c r="K48">
         <v>0.01538327086843695</v>
@@ -3289,7 +3289,7 @@
         <v>5.214935757608986</v>
       </c>
       <c r="J49">
-        <v>-0.2915661249253344</v>
+        <v>-0.3756917078413725</v>
       </c>
       <c r="K49">
         <v>0.03623179950833471</v>
@@ -3348,7 +3348,7 @@
         <v>5.209486152841421</v>
       </c>
       <c r="J50">
-        <v>-0.2914564645294381</v>
+        <v>-0.3740803118998588</v>
       </c>
       <c r="K50">
         <v>0.03695074573602177</v>
@@ -3407,7 +3407,7 @@
         <v>5.187385805840755</v>
       </c>
       <c r="J51">
-        <v>-0.2738370292363623</v>
+        <v>-0.362537631993411</v>
       </c>
       <c r="K51">
         <v>0.0386656907680557</v>
@@ -3466,7 +3466,7 @@
         <v>3.218875824868201</v>
       </c>
       <c r="J52">
-        <v>0.5879724740017486</v>
+        <v>0.5505542990970758</v>
       </c>
       <c r="K52">
         <v>-0.02580340854704775</v>
@@ -3525,7 +3525,7 @@
         <v>5.181783550292085</v>
       </c>
       <c r="J53">
-        <v>-0.2703968588208092</v>
+        <v>-0.3542741109733601</v>
       </c>
       <c r="K53">
         <v>0.03971053407823966</v>
@@ -3584,7 +3584,7 @@
         <v>3.13549421592915</v>
       </c>
       <c r="J54">
-        <v>0.6216575909236395</v>
+        <v>0.618066154779363</v>
       </c>
       <c r="K54">
         <v>-0.01039202289240374</v>
@@ -3643,7 +3643,7 @@
         <v>5.170483995038151</v>
       </c>
       <c r="J55">
-        <v>-0.239459770322765</v>
+        <v>-0.2771929744133621</v>
       </c>
       <c r="K55">
         <v>0.04607950714821937</v>
@@ -3702,7 +3702,7 @@
         <v>3.044522437723423</v>
       </c>
       <c r="J56">
-        <v>0.4099913397284258</v>
+        <v>0.3116018369161292</v>
       </c>
       <c r="K56">
         <v>-0.0135640231325517</v>
@@ -3761,7 +3761,7 @@
         <v>5.164785973923514</v>
       </c>
       <c r="J57">
-        <v>-0.2532699859013061</v>
+        <v>-0.274301134039015</v>
       </c>
       <c r="K57">
         <v>0.0454050390544531</v>
@@ -3820,7 +3820,7 @@
         <v>5.159055299214529</v>
       </c>
       <c r="J58">
-        <v>-0.2757134866634529</v>
+        <v>-0.3085192362770055</v>
       </c>
       <c r="K58">
         <v>0.041300323524548</v>
@@ -3879,7 +3879,7 @@
         <v>2.995732273553991</v>
       </c>
       <c r="J59">
-        <v>0.6781799497646406</v>
+        <v>0.7139235920619538</v>
       </c>
       <c r="K59">
         <v>-0.02186662822082019</v>
@@ -3938,7 +3938,7 @@
         <v>5.575949103146316</v>
       </c>
       <c r="J60">
-        <v>0.7319876270970569</v>
+        <v>0.6715363681445562</v>
       </c>
       <c r="K60">
         <v>0.01916709355254965</v>
@@ -3997,7 +3997,7 @@
         <v>5.872117789475416</v>
       </c>
       <c r="J61">
-        <v>0.7626051306594123</v>
+        <v>0.6952074318152806</v>
       </c>
       <c r="K61">
         <v>0.02364049998079895</v>
@@ -4056,7 +4056,7 @@
         <v>2.94443897916644</v>
       </c>
       <c r="J62">
-        <v>0.5791707146682603</v>
+        <v>0.5675744477835092</v>
       </c>
       <c r="K62">
         <v>-0.01890380007560088</v>
@@ -4115,7 +4115,7 @@
         <v>4.406719247264253</v>
       </c>
       <c r="J63">
-        <v>0.6394392435580243</v>
+        <v>0.6048005157276394</v>
       </c>
       <c r="K63">
         <v>0.01216598974674835</v>
@@ -4174,7 +4174,7 @@
         <v>4.394449154672439</v>
       </c>
       <c r="J64">
-        <v>0.6163448697794205</v>
+        <v>0.5687728114996868</v>
       </c>
       <c r="K64">
         <v>0.008063576354190471</v>
@@ -4233,7 +4233,7 @@
         <v>4.382026634673881</v>
       </c>
       <c r="J65">
-        <v>0.6274435460406902</v>
+        <v>0.5917866544947218</v>
       </c>
       <c r="K65">
         <v>-0.009230255219309362</v>
@@ -4292,7 +4292,7 @@
         <v>2.70805020110221</v>
       </c>
       <c r="J66">
-        <v>0.4572381381169657</v>
+        <v>0.3881931295068951</v>
       </c>
       <c r="K66">
         <v>-0.005276332420184784</v>
@@ -4351,7 +4351,7 @@
         <v>5.117993812416755</v>
       </c>
       <c r="J67">
-        <v>-0.3484323104323973</v>
+        <v>-0.4203535900013271</v>
       </c>
       <c r="K67">
         <v>0.03753208658992969</v>
@@ -4410,7 +4410,7 @@
         <v>5.111987788356544</v>
       </c>
       <c r="J68">
-        <v>-0.355230364260737</v>
+        <v>-0.4186843865335352</v>
       </c>
       <c r="K68">
         <v>0.02692653522576754</v>
@@ -4469,7 +4469,7 @@
         <v>5.099866427824199</v>
       </c>
       <c r="J69">
-        <v>-0.2673772444122684</v>
+        <v>-0.299820493965562</v>
       </c>
       <c r="K69">
         <v>0.02819014223570979</v>
@@ -4528,7 +4528,7 @@
         <v>2.302585092994046</v>
       </c>
       <c r="J70">
-        <v>-0.2750255487216531</v>
+        <v>-0.2008089161576054</v>
       </c>
       <c r="K70">
         <v>0.02968216148005343</v>
@@ -4587,7 +4587,7 @@
         <v>2.302585092994046</v>
       </c>
       <c r="J71">
-        <v>0.7249744512783469</v>
+        <v>0.7991910838423946</v>
       </c>
       <c r="K71">
         <v>-0.008111378925543554</v>
@@ -4646,7 +4646,7 @@
         <v>4.23410650459726</v>
       </c>
       <c r="J72">
-        <v>-0.2859510223603484</v>
+        <v>-0.2744310452854581</v>
       </c>
       <c r="K72">
         <v>0.02535342170846976</v>
@@ -4705,7 +4705,7 @@
         <v>5.834810737062605</v>
       </c>
       <c r="J73">
-        <v>-0.2011881318450534</v>
+        <v>-0.2548208329090379</v>
       </c>
       <c r="K73">
         <v>0.02465338604637026</v>
@@ -4764,7 +4764,7 @@
         <v>5.831882477283517</v>
       </c>
       <c r="J74">
-        <v>-0.2147400757974697</v>
+        <v>-0.2774061719553423</v>
       </c>
       <c r="K74">
         <v>0.02263123999627022</v>
@@ -4823,7 +4823,7 @@
         <v>5.828945617610207</v>
       </c>
       <c r="J75">
-        <v>-0.2173328306313735</v>
+        <v>-0.2798342582389</v>
       </c>
       <c r="K75">
         <v>0.02776015395407879</v>
@@ -4882,7 +4882,7 @@
         <v>5.517452896464707</v>
       </c>
       <c r="J76">
-        <v>-0.2458762279835907</v>
+        <v>-0.2983208435889405</v>
       </c>
       <c r="K76">
         <v>0.02948436303653904</v>
@@ -4941,7 +4941,7 @@
         <v>4.204692619390966</v>
       </c>
       <c r="J77">
-        <v>-0.3240242056058386</v>
+        <v>-0.3326377295103499</v>
       </c>
       <c r="K77">
         <v>0.0189264180506406</v>
@@ -5000,7 +5000,7 @@
         <v>5.82600010738045</v>
       </c>
       <c r="J78">
-        <v>-0.2070337861563462</v>
+        <v>-0.2631102081736549</v>
       </c>
       <c r="K78">
         <v>0.03199650288033976</v>
@@ -5059,7 +5059,7 @@
         <v>5.056245805348308</v>
       </c>
       <c r="J79">
-        <v>-0.4217472916627334</v>
+        <v>-0.5559153993069985</v>
       </c>
       <c r="K79">
         <v>0.02580889087886285</v>
@@ -5118,7 +5118,7 @@
         <v>5.056245805348308</v>
       </c>
       <c r="J80">
-        <v>-0.2648055311546864</v>
+        <v>-0.2920395395789651</v>
       </c>
       <c r="K80">
         <v>0.02570580204038151</v>
@@ -5177,7 +5177,7 @@
         <v>5.049856007249537</v>
       </c>
       <c r="J81">
-        <v>0.7246842188361443</v>
+        <v>0.7026436258376072</v>
       </c>
       <c r="K81">
         <v>0.01499485017906089</v>
@@ -5236,7 +5236,7 @@
         <v>5.017279836814924</v>
       </c>
       <c r="J82">
-        <v>-0.3277246803062499</v>
+        <v>-0.3657810387212324</v>
       </c>
       <c r="K82">
         <v>0.02411663510507293</v>
@@ -5295,7 +5295,7 @@
         <v>3.178053830347946</v>
       </c>
       <c r="J83">
-        <v>-0.4052013319704449</v>
+        <v>-0.4112279047185045</v>
       </c>
       <c r="K83">
         <v>0.01236874717309147</v>
@@ -5354,7 +5354,7 @@
         <v>3.091042453358316</v>
       </c>
       <c r="J84">
-        <v>-0.2437895981502163</v>
+        <v>-0.1936826864290633</v>
       </c>
       <c r="K84">
         <v>0.01159062819393414</v>
@@ -5413,7 +5413,7 @@
         <v>4.04305126783455</v>
       </c>
       <c r="J85">
-        <v>0.5050814350074688</v>
+        <v>0.4401178296335003</v>
       </c>
       <c r="K85">
         <v>0.008327640719386589</v>
@@ -5472,7 +5472,7 @@
         <v>3.091042453358316</v>
       </c>
       <c r="J86">
-        <v>-0.5948446639829655</v>
+        <v>-0.6699335345404244</v>
       </c>
       <c r="K86">
         <v>0.01840188556961721</v>
@@ -5531,7 +5531,7 @@
         <v>4.997212273764115</v>
       </c>
       <c r="J87">
-        <v>-0.3939394759803599</v>
+        <v>-0.4585132429976265</v>
       </c>
       <c r="K87">
         <v>0.02800785463413581</v>
@@ -5590,7 +5590,7 @@
         <v>5.799092654460526</v>
       </c>
       <c r="J88">
-        <v>0.7019387462035553</v>
+        <v>0.631015347269552</v>
       </c>
       <c r="K88">
         <v>0.02828976282459076</v>
@@ -5649,7 +5649,7 @@
         <v>3.091042453358316</v>
       </c>
       <c r="J89">
-        <v>-0.9402281214190295</v>
+        <v>-0.988630882233048</v>
       </c>
       <c r="K89">
         <v>0.05694532899210504</v>
@@ -5708,7 +5708,7 @@
         <v>3.044522437723423</v>
       </c>
       <c r="J90">
-        <v>0.4506107084359413</v>
+        <v>0.3903342558544315</v>
       </c>
       <c r="K90">
         <v>-0.004560933009615811</v>
@@ -5767,7 +5767,7 @@
         <v>3.044522437723423</v>
       </c>
       <c r="J91">
-        <v>-0.2040158059387859</v>
+        <v>-0.1453981085768625</v>
       </c>
       <c r="K91">
         <v>0.006619969327143108</v>
@@ -5826,7 +5826,7 @@
         <v>5.796057750765372</v>
       </c>
       <c r="J92">
-        <v>-0.2863514972264651</v>
+        <v>-0.3525618171606939</v>
       </c>
       <c r="K92">
         <v>0.026220202041851</v>
@@ -5885,7 +5885,7 @@
         <v>5.793013608384144</v>
       </c>
       <c r="J93">
-        <v>-0.3280977608810187</v>
+        <v>-0.3987380872147499</v>
       </c>
       <c r="K93">
         <v>0.02142252835546012</v>
@@ -5944,7 +5944,7 @@
         <v>2.94443897916644</v>
       </c>
       <c r="J94">
-        <v>0.4621266727263472</v>
+        <v>0.4002797677062123</v>
       </c>
       <c r="K94">
         <v>0.03321912496232264</v>
@@ -6003,7 +6003,7 @@
         <v>2.890371757896165</v>
       </c>
       <c r="J95">
-        <v>0.6064933166174998</v>
+        <v>0.6098940408812495</v>
       </c>
       <c r="K95">
         <v>-0.05192759470039592</v>
@@ -6062,7 +6062,7 @@
         <v>2.890371757896165</v>
       </c>
       <c r="J96">
-        <v>-0.3935066833825002</v>
+        <v>-0.3901059591187505</v>
       </c>
       <c r="K96">
         <v>0.007356233454704084</v>
@@ -6121,7 +6121,7 @@
         <v>3.912023005428146</v>
       </c>
       <c r="J97">
-        <v>0.5095880502986675</v>
+        <v>0.4132723034673947</v>
       </c>
       <c r="K97">
         <v>0.00804037272064561</v>
@@ -6180,7 +6180,7 @@
         <v>2.564949357461537</v>
       </c>
       <c r="J98">
-        <v>-0.3279004641600129</v>
+        <v>-0.2840252049487451</v>
       </c>
       <c r="K98">
         <v>-0.001048616455305351</v>
@@ -6239,7 +6239,7 @@
         <v>3.850147601710058</v>
       </c>
       <c r="J99">
-        <v>-0.4804677625080657</v>
+        <v>-0.5678895696696906</v>
       </c>
       <c r="K99">
         <v>0.02592762484214393</v>
@@ -6298,7 +6298,7 @@
         <v>3.784189633918261</v>
       </c>
       <c r="J100">
-        <v>0.6125632665431435</v>
+        <v>0.5902559944751552</v>
       </c>
       <c r="K100">
         <v>0.009050081715447987</v>
@@ -6357,7 +6357,7 @@
         <v>3.784189633918261</v>
       </c>
       <c r="J101">
-        <v>0.4281307782911441</v>
+        <v>0.3131003582634257</v>
       </c>
       <c r="K101">
         <v>0.009453439169496397</v>
@@ -6416,7 +6416,7 @@
         <v>5.752572638825633</v>
       </c>
       <c r="J102">
-        <v>-0.3247362141841875</v>
+        <v>-0.456328450671996</v>
       </c>
       <c r="K102">
         <v>0.02745323171991567</v>
@@ -6475,7 +6475,7 @@
         <v>5.749392985908253</v>
       </c>
       <c r="J103">
-        <v>-0.2329798443783697</v>
+        <v>-0.2971019097399299</v>
       </c>
       <c r="K103">
         <v>0.02522465696080101</v>
@@ -6534,7 +6534,7 @@
         <v>4.882801922586371</v>
       </c>
       <c r="J104">
-        <v>-0.3052555134764163</v>
+        <v>-0.3434604990445123</v>
       </c>
       <c r="K104">
         <v>0.02082828677995629</v>
@@ -6593,7 +6593,7 @@
         <v>5.402677381872279</v>
       </c>
       <c r="J105">
-        <v>0.7496303800913222</v>
+        <v>0.7118218894617306</v>
       </c>
       <c r="K105">
         <v>0.01292997540923522</v>
@@ -6652,7 +6652,7 @@
         <v>3.663561646129646</v>
       </c>
       <c r="J106">
-        <v>0.5074171355201641</v>
+        <v>0.4413746962434882</v>
       </c>
       <c r="K106">
         <v>0.01960708070007249</v>
@@ -6711,7 +6711,7 @@
         <v>3.637586159726386</v>
       </c>
       <c r="J107">
-        <v>-0.3510882024595741</v>
+        <v>-0.347089326316609</v>
       </c>
       <c r="K107">
         <v>0.01535606431366598</v>
@@ -6770,7 +6770,7 @@
         <v>3.637586159726386</v>
       </c>
       <c r="J108">
-        <v>0.4457782953638911</v>
+        <v>0.3532743647529151</v>
       </c>
       <c r="K108">
         <v>0.01311803726515061</v>
@@ -6829,7 +6829,7 @@
         <v>3.610917912644224</v>
       </c>
       <c r="J109">
-        <v>0.3859582319304097</v>
+        <v>0.2684473562285634</v>
       </c>
       <c r="K109">
         <v>0.02151578084802293</v>
@@ -6888,7 +6888,7 @@
         <v>3.555348061489414</v>
       </c>
       <c r="J110">
-        <v>-0.4299599911453926</v>
+        <v>-0.464727774437137</v>
       </c>
       <c r="K110">
         <v>0.02566793591303428</v>
@@ -6947,7 +6947,7 @@
         <v>4.110873864173311</v>
       </c>
       <c r="J111">
-        <v>0.4858493138294997</v>
+        <v>0.3809302354170533</v>
       </c>
       <c r="K111">
         <v>0.008682589090356678</v>
@@ -7006,7 +7006,7 @@
         <v>4.0943445622221</v>
       </c>
       <c r="J112">
-        <v>0.5082803000186039</v>
+        <v>0.4146733659644324</v>
       </c>
       <c r="K112">
         <v>0.008263535428515247</v>
@@ -7065,7 +7065,7 @@
         <v>4.07753744390572</v>
       </c>
       <c r="J113">
-        <v>0.4834603401194686</v>
+        <v>0.3795379435359097</v>
       </c>
       <c r="K113">
         <v>0.009935028140256007</v>
@@ -7124,7 +7124,7 @@
         <v>3.401197381662155</v>
       </c>
       <c r="J114">
-        <v>0.669895928235746</v>
+        <v>0.6905530677104065</v>
       </c>
       <c r="K114">
         <v>0.01534681345944469</v>
@@ -7183,7 +7183,7 @@
         <v>4.060443010546419</v>
       </c>
       <c r="J115">
-        <v>0.5123679330661541</v>
+        <v>0.4332525528029408</v>
       </c>
       <c r="K115">
         <v>0.003304976270654791</v>
@@ -7242,7 +7242,7 @@
         <v>3.401197381662155</v>
       </c>
       <c r="J116">
-        <v>0.4423382198401356</v>
+        <v>0.3561256105761461</v>
       </c>
       <c r="K116">
         <v>0.01489145433072172</v>
@@ -7301,7 +7301,7 @@
         <v>5.356586274672012</v>
       </c>
       <c r="J117">
-        <v>0.6574486718205413</v>
+        <v>0.5759710692001131</v>
       </c>
       <c r="K117">
         <v>0.01572186011766589</v>
@@ -7360,7 +7360,7 @@
         <v>4.795790545596741</v>
       </c>
       <c r="J118">
-        <v>-0.3003509503285633</v>
+        <v>-0.320496616423831</v>
       </c>
       <c r="K118">
         <v>0.02612973705168275</v>
@@ -7419,7 +7419,7 @@
         <v>3.332204510175204</v>
       </c>
       <c r="J119">
-        <v>-0.2806452864364939</v>
+        <v>-0.2426361844419129</v>
       </c>
       <c r="K119">
         <v>0.01714788472824676</v>
@@ -7478,7 +7478,7 @@
         <v>3.332204510175204</v>
       </c>
       <c r="J120">
-        <v>0.479389285214154</v>
+        <v>0.4212060080527553</v>
       </c>
       <c r="K120">
         <v>0.007725397991611808</v>
@@ -7537,7 +7537,7 @@
         <v>5.707110264748875</v>
       </c>
       <c r="J121">
-        <v>-0.2314796237517942</v>
+        <v>-0.2647736465087853</v>
       </c>
       <c r="K121">
         <v>0.02113017273319937</v>
@@ -7596,7 +7596,7 @@
         <v>5.347107530717468</v>
       </c>
       <c r="J122">
-        <v>-0.2557404865823412</v>
+        <v>-0.2786920209697827</v>
       </c>
       <c r="K122">
         <v>0.02600240041053124</v>
@@ -7655,7 +7655,7 @@
         <v>5.347107530717468</v>
       </c>
       <c r="J123">
-        <v>0.6647770666748293</v>
+        <v>0.602305310924061</v>
       </c>
       <c r="K123">
         <v>0.01328650645679028</v>
@@ -7714,7 +7714,7 @@
         <v>5.342334251964811</v>
       </c>
       <c r="J124">
-        <v>-0.2561492901784134</v>
+        <v>-0.2778521828631513</v>
       </c>
       <c r="K124">
         <v>0.02662923908363425</v>
@@ -7773,7 +7773,7 @@
         <v>3.295836866004329</v>
       </c>
       <c r="J125">
-        <v>-0.2767505395398495</v>
+        <v>-0.2377016991890697</v>
       </c>
       <c r="K125">
         <v>0.01672551533184474</v>
@@ -7832,7 +7832,7 @@
         <v>4.007333185232471</v>
       </c>
       <c r="J126">
-        <v>-0.2919163486688376</v>
+        <v>-0.2743054564419617</v>
       </c>
       <c r="K126">
         <v>0.02164461137237473</v>
@@ -7891,7 +7891,7 @@
         <v>3.258096538021482</v>
       </c>
       <c r="J127">
-        <v>0.4797920675611449</v>
+        <v>0.4260464799499145</v>
       </c>
       <c r="K127">
         <v>0.008655072535024864</v>
@@ -7950,7 +7950,7 @@
         <v>3.970291913552122</v>
       </c>
       <c r="J128">
-        <v>-0.3409131395111361</v>
+        <v>-0.340266613077149</v>
       </c>
       <c r="K128">
         <v>0.008782645917686148</v>
@@ -8009,7 +8009,7 @@
         <v>3.970291913552122</v>
       </c>
       <c r="J129">
-        <v>0.4733343864921172</v>
+        <v>0.4051674681590395</v>
       </c>
       <c r="K129">
         <v>0.01300365810583488</v>
@@ -8068,7 +8068,7 @@
         <v>3.218875824868201</v>
       </c>
       <c r="J130">
-        <v>-0.3427315997855573</v>
+        <v>-0.32581473378542</v>
       </c>
       <c r="K130">
         <v>0.008300809338152651</v>
@@ -8127,7 +8127,7 @@
         <v>3.178053830347946</v>
       </c>
       <c r="J131">
-        <v>0.5551470340790013</v>
+        <v>0.5455795198823424</v>
       </c>
       <c r="K131">
         <v>0.008614005262065509</v>
@@ -8186,7 +8186,7 @@
         <v>3.931825632724326</v>
       </c>
       <c r="J132">
-        <v>-0.4773848658654717</v>
+        <v>-0.498833125466133</v>
       </c>
       <c r="K132">
         <v>0.002684923153392395</v>
@@ -8245,7 +8245,7 @@
         <v>3.091042453358316</v>
       </c>
       <c r="J133">
-        <v>-0.1613958845443733</v>
+        <v>-0.1319162779158929</v>
       </c>
       <c r="K133">
         <v>0.03844326240929708</v>
@@ -8304,7 +8304,7 @@
         <v>3.091042453358316</v>
       </c>
       <c r="J134">
-        <v>0.450543794720333</v>
+        <v>0.4259258353234096</v>
       </c>
       <c r="K134">
         <v>0.00657270849137679</v>
@@ -8363,7 +8363,7 @@
         <v>3.912023005428146</v>
       </c>
       <c r="J135">
-        <v>0.5145598733517818</v>
+        <v>0.4923284639514122</v>
       </c>
       <c r="K135">
         <v>-0.0002856187318481043</v>
@@ -8422,7 +8422,7 @@
         <v>5.680172609017068</v>
       </c>
       <c r="J136">
-        <v>0.6803904947636125</v>
+        <v>0.6550152737711109</v>
       </c>
       <c r="K136">
         <v>0.00794887173326226</v>
@@ -8481,7 +8481,7 @@
         <v>2.94443897916644</v>
       </c>
       <c r="J137">
-        <v>-0.1642890109982995</v>
+        <v>-0.1325336842975986</v>
       </c>
       <c r="K137">
         <v>0.02685705367577528</v>
@@ -8540,7 +8540,7 @@
         <v>3.80666248977032</v>
       </c>
       <c r="J138">
-        <v>-0.3207940079886015</v>
+        <v>-0.3131333412206554</v>
       </c>
       <c r="K138">
         <v>0.005362368170897372</v>
@@ -8599,7 +8599,7 @@
         <v>5.66988092298052</v>
       </c>
       <c r="J139">
-        <v>-0.3777530740558172</v>
+        <v>-0.4157215094238519</v>
       </c>
       <c r="K139">
         <v>0.01359626754991276</v>
@@ -8658,7 +8658,7 @@
         <v>5.293304824724492</v>
       </c>
       <c r="J140">
-        <v>-0.4279725707797362</v>
+        <v>-0.465547130025844</v>
       </c>
       <c r="K140">
         <v>0.01352442842544643</v>
@@ -8717,7 +8717,7 @@
         <v>4.68213122712422</v>
       </c>
       <c r="J141">
-        <v>-0.5069445684514662</v>
+        <v>-0.5453977142038182</v>
       </c>
       <c r="K141">
         <v>0.00872911859613211</v>
@@ -8776,7 +8776,7 @@
         <v>4.672828834461906</v>
       </c>
       <c r="J142">
-        <v>-0.5071662343855496</v>
+        <v>-0.5435673301410664</v>
       </c>
       <c r="K142">
         <v>0.01861148091075722</v>
@@ -8835,7 +8835,7 @@
         <v>4.672828834461906</v>
       </c>
       <c r="J143">
-        <v>0.4928337656144504</v>
+        <v>0.4564326698589337</v>
       </c>
       <c r="K143">
         <v>0.01841060874345739</v>
@@ -8894,7 +8894,7 @@
         <v>5.288267030694535</v>
       </c>
       <c r="J144">
-        <v>-0.2902082031343658</v>
+        <v>-0.2997281270724242</v>
       </c>
       <c r="K144">
         <v>0.02136635469740705</v>
@@ -8953,7 +8953,7 @@
         <v>2.772588722239781</v>
       </c>
       <c r="J145">
-        <v>-0.2803987719560748</v>
+        <v>-0.2594562569873267</v>
       </c>
       <c r="K145">
         <v>0.01866569918630306</v>
@@ -9012,7 +9012,7 @@
         <v>2.772588722239781</v>
       </c>
       <c r="J146">
-        <v>0.7196012280439252</v>
+        <v>0.7405437430126733</v>
       </c>
       <c r="K146">
         <v>-0.009410135228718967</v>
@@ -9071,7 +9071,7 @@
         <v>2.772588722239781</v>
       </c>
       <c r="J147">
-        <v>-0.7666652765584628</v>
+        <v>-0.8117088225554443</v>
       </c>
       <c r="K147">
         <v>0.01864038695351685</v>
@@ -9130,7 +9130,7 @@
         <v>2.772588722239781</v>
       </c>
       <c r="J148">
-        <v>0.2333347234415372</v>
+        <v>0.1882911774445558</v>
       </c>
       <c r="K148">
         <v>0.008940273429706366</v>
@@ -9189,7 +9189,7 @@
         <v>4.644390899141372</v>
       </c>
       <c r="J149">
-        <v>-0.5351429308800048</v>
+        <v>-0.5549758590094395</v>
       </c>
       <c r="K149">
         <v>0.02044067918021657</v>
@@ -9248,7 +9248,7 @@
         <v>2.564949357461537</v>
       </c>
       <c r="J150">
-        <v>0.7265168314386244</v>
+        <v>0.7384294158519982</v>
       </c>
       <c r="K150">
         <v>-0.0192489047915628</v>
@@ -9307,7 +9307,7 @@
         <v>4.644390899141372</v>
       </c>
       <c r="J151">
-        <v>-0.8071162812041968</v>
+        <v>-0.8373523806206433</v>
       </c>
       <c r="K151">
         <v>0.03268670965526437</v>
@@ -9366,7 +9366,7 @@
         <v>4.634728988229636</v>
       </c>
       <c r="J152">
-        <v>-0.7955668585548265</v>
+        <v>-0.8132146793660838</v>
       </c>
       <c r="K152">
         <v>0.03623699304759293</v>
@@ -9425,7 +9425,7 @@
         <v>2.397895272798371</v>
       </c>
       <c r="J153">
-        <v>-0.730648033803828</v>
+        <v>-0.742072908112025</v>
       </c>
       <c r="K153">
         <v>0.01289643623492007</v>
@@ -9484,7 +9484,7 @@
         <v>5.648974238161206</v>
       </c>
       <c r="J154">
-        <v>-0.3736133414789544</v>
+        <v>-0.3819944077506023</v>
       </c>
       <c r="K154">
         <v>0.01928135070531473</v>
@@ -9543,7 +9543,7 @@
         <v>5.262690188904886</v>
       </c>
       <c r="J155">
-        <v>-0.4161623955664855</v>
+        <v>-0.4242218430990761</v>
       </c>
       <c r="K155">
         <v>0.02463415826782179</v>
@@ -9602,7 +9602,7 @@
         <v>4.624972813284271</v>
       </c>
       <c r="J156">
-        <v>0.5178159291957349</v>
+        <v>0.5098729936196715</v>
       </c>
       <c r="K156">
         <v>0.01869311524981972</v>
@@ -9661,7 +9661,7 @@
         <v>5.257495372027781</v>
       </c>
       <c r="J157">
-        <v>0.5781039628403127</v>
+        <v>0.5762909113153161</v>
       </c>
       <c r="K157">
         <v>0.01987092111297418</v>
@@ -9720,7 +9720,7 @@
         <v>2.302585092994046</v>
       </c>
       <c r="J158">
-        <v>-0.7484498444770152</v>
+        <v>-0.7510838128731185</v>
       </c>
       <c r="K158">
         <v>-0.02890436324526196</v>
@@ -9779,7 +9779,7 @@
         <v>2.302585092994046</v>
       </c>
       <c r="J159">
-        <v>0.8934995315319321</v>
+        <v>0.8955217881395265</v>
       </c>
       <c r="K159">
         <v>0.01374951073641247</v>
@@ -9838,7 +9838,7 @@
         <v>3.637586159726386</v>
       </c>
       <c r="J160">
-        <v>0.4119550185090907</v>
+        <v>0.4099332768567575</v>
       </c>
       <c r="K160">
         <v>0.01747458002922926</v>
@@ -9897,7 +9897,7 @@
         <v>2.302585092994046</v>
       </c>
       <c r="J161">
-        <v>0.2515501555229848</v>
+        <v>0.2489161871268815</v>
       </c>
       <c r="K161">
         <v>0.002864904918428009</v>
@@ -9956,7 +9956,7 @@
         <v>3.610917912644224</v>
       </c>
       <c r="J162">
-        <v>-0.2457025303984732</v>
+        <v>-0.2447858306740441</v>
       </c>
       <c r="K162">
         <v>0.0108738979782327</v>
@@ -10015,7 +10015,7 @@
         <v>5.25227342804663</v>
       </c>
       <c r="J163">
-        <v>0.5633984965577213</v>
+        <v>0.5619873141790485</v>
       </c>
       <c r="K163">
         <v>0.02183343708559764</v>
@@ -10074,7 +10074,7 @@
         <v>3.58351893845611</v>
       </c>
       <c r="J164">
-        <v>-0.2226030461977254</v>
+        <v>-0.2245371066418724</v>
       </c>
       <c r="K164">
         <v>0.01403047545373223</v>
@@ -10133,7 +10133,7 @@
         <v>3.49650756146648</v>
       </c>
       <c r="J165">
-        <v>-0.3086196614215002</v>
+        <v>-0.3133644251606634</v>
       </c>
       <c r="K165">
         <v>0.009204521997080266</v>
@@ -10192,7 +10192,7 @@
         <v>5.214935757608986</v>
       </c>
       <c r="J166">
-        <v>-0.3917435101084648</v>
+        <v>-0.387051773850739</v>
       </c>
       <c r="K166">
         <v>0.006213209015980936</v>
@@ -10251,7 +10251,7 @@
         <v>3.367295829986474</v>
       </c>
       <c r="J167">
-        <v>0.4180455278531177</v>
+        <v>0.4237401628886981</v>
       </c>
       <c r="K167">
         <v>0.0275832706901692</v>
@@ -10310,7 +10310,7 @@
         <v>4.52178857704904</v>
       </c>
       <c r="J168">
-        <v>0.5211833927911278</v>
+        <v>0.5261516308156799</v>
       </c>
       <c r="K168">
         <v>0.02175440676918739</v>
@@ -10369,7 +10369,7 @@
         <v>3.332204510175204</v>
       </c>
       <c r="J169">
-        <v>0.4290930977708075</v>
+        <v>0.4393513195785307</v>
       </c>
       <c r="K169">
         <v>-0.001750872695283047</v>
@@ -10428,7 +10428,7 @@
         <v>3.295836866004329</v>
       </c>
       <c r="J170">
-        <v>-0.6071373088296007</v>
+        <v>-0.5937047403599315</v>
       </c>
       <c r="K170">
         <v>0.005704909734998515</v>
@@ -10487,7 +10487,7 @@
         <v>5.602118820879701</v>
       </c>
       <c r="J171">
-        <v>-0.5266874661696237</v>
+        <v>-0.5040933738654911</v>
       </c>
       <c r="K171">
         <v>0.01028656944682237</v>
@@ -10546,7 +10546,7 @@
         <v>3.258096538021482</v>
       </c>
       <c r="J172">
-        <v>-0.5510717001395986</v>
+        <v>-0.5411448565727757</v>
       </c>
       <c r="K172">
         <v>0.002336679705358752</v>
@@ -10605,7 +10605,7 @@
         <v>3.970291913552122</v>
       </c>
       <c r="J173">
-        <v>0.567219949646701</v>
+        <v>0.5695608622064764</v>
       </c>
       <c r="K173">
         <v>0.003358711568557618</v>
@@ -10664,7 +10664,7 @@
         <v>3.218875824868201</v>
       </c>
       <c r="J174">
-        <v>-0.4591391948554803</v>
+        <v>-0.4573228730658747</v>
       </c>
       <c r="K174">
         <v>0.010590180247106</v>
@@ -10723,7 +10723,7 @@
         <v>3.178053830347946</v>
       </c>
       <c r="J175">
-        <v>-0.6035942416975233</v>
+        <v>-0.6031700097069262</v>
       </c>
       <c r="K175">
         <v>-0.005433070729060317</v>
@@ -10782,7 +10782,7 @@
         <v>5.181783550292085</v>
       </c>
       <c r="J176">
-        <v>-0.3311840530062495</v>
+        <v>-0.3310300860906658</v>
       </c>
       <c r="K176">
         <v>0.01591246288505847</v>
@@ -10841,7 +10841,7 @@
         <v>2.890371757896165</v>
       </c>
       <c r="J177">
-        <v>0.3350879569308621</v>
+        <v>0.3619053523950512</v>
       </c>
       <c r="K177">
         <v>0.001914277545100485</v>
@@ -10900,7 +10900,7 @@
         <v>2.772588722239781</v>
       </c>
       <c r="J178">
-        <v>0.6445253661195001</v>
+        <v>0.6460493340104404</v>
       </c>
       <c r="K178">
         <v>-0.01769036790485024</v>
@@ -10959,7 +10959,7 @@
         <v>2.70805020110221</v>
       </c>
       <c r="J179">
-        <v>-0.3451930796395084</v>
+        <v>-0.3501899736025161</v>
       </c>
       <c r="K179">
         <v>-0.003684035215488109</v>
@@ -11018,7 +11018,7 @@
         <v>2.564949357461537</v>
       </c>
       <c r="J180">
-        <v>0.7701971903171674</v>
+        <v>0.7622734846582857</v>
       </c>
       <c r="K180">
         <v>-0.008026756684730033</v>
@@ -11077,7 +11077,7 @@
         <v>5.54907608489522</v>
       </c>
       <c r="J181">
-        <v>0.5400570033617798</v>
+        <v>0.554642525713292</v>
       </c>
       <c r="K181">
         <v>0.00984357768601353</v>
@@ -11136,7 +11136,7 @@
         <v>2.484906649788</v>
       </c>
       <c r="J182">
-        <v>0.7108007655617117</v>
+        <v>0.7028240984735279</v>
       </c>
       <c r="K182">
         <v>-0.01312938488395022</v>
@@ -11195,7 +11195,7 @@
         <v>4.174387269895637</v>
       </c>
       <c r="J183">
-        <v>-0.2237992948012173</v>
+        <v>-0.2191285748291317</v>
       </c>
       <c r="K183">
         <v>0.02019075692083845</v>
@@ -11254,7 +11254,7 @@
         <v>3.401197381662155</v>
       </c>
       <c r="J184">
-        <v>0.4490028582201367</v>
+        <v>0.4424751782158415</v>
       </c>
       <c r="K184">
         <v>0.01493230325025941</v>
@@ -11313,7 +11313,7 @@
         <v>4.174387269895637</v>
       </c>
       <c r="J185">
-        <v>-0.4874573473697474</v>
+        <v>-0.493446743362166</v>
       </c>
       <c r="K185">
         <v>0.02496947102103756</v>
@@ -11372,7 +11372,7 @@
         <v>4.174387269895637</v>
       </c>
       <c r="J186">
-        <v>0.5125426526302526</v>
+        <v>0.506553256637834</v>
       </c>
       <c r="K186">
         <v>0.009818911391024449</v>
@@ -11431,7 +11431,7 @@
         <v>5.049856007249537</v>
       </c>
       <c r="J187">
-        <v>0.75462900766944</v>
+        <v>0.755813826132377</v>
       </c>
       <c r="K187">
         <v>0.0007338662303322009</v>
@@ -11490,7 +11490,7 @@
         <v>5.509388336627977</v>
       </c>
       <c r="J188">
-        <v>0.630171030280622</v>
+        <v>0.6234189427248126</v>
       </c>
       <c r="K188">
         <v>0.00706088018111721</v>
@@ -11549,7 +11549,7 @@
         <v>5.049856007249537</v>
       </c>
       <c r="J189">
-        <v>0.5867607833484876</v>
+        <v>0.5804923701733095</v>
       </c>
       <c r="K189">
         <v>0.009611134451623263</v>
@@ -11608,7 +11608,7 @@
         <v>4.158883083359671</v>
       </c>
       <c r="J190">
-        <v>-0.2491575355252456</v>
+        <v>-0.2444120442386019</v>
       </c>
       <c r="K190">
         <v>0.01407420328826217</v>
@@ -11667,7 +11667,7 @@
         <v>3.367295829986474</v>
       </c>
       <c r="J191">
-        <v>0.556729246350178</v>
+        <v>0.5543396977538962</v>
       </c>
       <c r="K191">
         <v>0.01783394753266907</v>
@@ -11726,7 +11726,7 @@
         <v>5.501258210544727</v>
       </c>
       <c r="J192">
-        <v>0.6207998785419334</v>
+        <v>0.6263278920068098</v>
       </c>
       <c r="K192">
         <v>0.005008663335243232</v>
@@ -11785,7 +11785,7 @@
         <v>5.03695260241363</v>
       </c>
       <c r="J193">
-        <v>0.5790355158897221</v>
+        <v>0.584152229971419</v>
       </c>
       <c r="K193">
         <v>0.008593603316317408</v>
@@ -11844,7 +11844,7 @@
         <v>3.332204510175204</v>
       </c>
       <c r="J194">
-        <v>0.4425522426912357</v>
+        <v>0.447937286840946</v>
       </c>
       <c r="K194">
         <v>0.01661444657787997</v>
@@ -11903,7 +11903,7 @@
         <v>3.332204510175204</v>
       </c>
       <c r="J195">
-        <v>-0.146066180780335</v>
+        <v>-0.1526538958149972</v>
       </c>
       <c r="K195">
         <v>0.03163781175961053</v>
@@ -11962,7 +11962,7 @@
         <v>3.218875824868201</v>
       </c>
       <c r="J196">
-        <v>0.3875517053547174</v>
+        <v>0.3974132624160539</v>
       </c>
       <c r="K196">
         <v>0.01592679293209814</v>
@@ -12021,7 +12021,7 @@
         <v>3.218875824868201</v>
       </c>
       <c r="J197">
-        <v>-0.4262854135521716</v>
+        <v>-0.425436676764325</v>
       </c>
       <c r="K197">
         <v>0.01463317682156033</v>
@@ -12080,7 +12080,7 @@
         <v>3.218875824868201</v>
       </c>
       <c r="J198">
-        <v>-0.1582136954694269</v>
+        <v>-0.1676888208932683</v>
       </c>
       <c r="K198">
         <v>0.02289835208762231</v>
@@ -12139,7 +12139,7 @@
         <v>4.0943445622221</v>
       </c>
       <c r="J199">
-        <v>-0.2231831734616798</v>
+        <v>-0.2292720040985758</v>
       </c>
       <c r="K199">
         <v>0.01488503251737352</v>
@@ -12198,7 +12198,7 @@
         <v>3.178053830347946</v>
       </c>
       <c r="J200">
-        <v>-0.4040777796660564</v>
+        <v>-0.4044765313303494</v>
       </c>
       <c r="K200">
         <v>0.02415067943306863</v>
@@ -12257,7 +12257,7 @@
         <v>5.010635294096256</v>
       </c>
       <c r="J201">
-        <v>-0.2443461129437335</v>
+        <v>-0.2466320592996073</v>
       </c>
       <c r="K201">
         <v>0.01518711716214209</v>
@@ -12316,7 +12316,7 @@
         <v>4.07753744390572</v>
       </c>
       <c r="J202">
-        <v>-0.5153341881607971</v>
+        <v>-0.5067944373497659</v>
       </c>
       <c r="K202">
         <v>0.01534908982431785</v>
@@ -12375,7 +12375,7 @@
         <v>5.010635294096256</v>
       </c>
       <c r="J203">
-        <v>-0.4349013411600522</v>
+        <v>-0.4263475138546625</v>
       </c>
       <c r="K203">
         <v>0.01417262402307948</v>
@@ -12434,7 +12434,7 @@
         <v>4.060443010546419</v>
       </c>
       <c r="J204">
-        <v>-0.4536466278577149</v>
+        <v>-0.4487482901102879</v>
       </c>
       <c r="K204">
         <v>0.01085124542105892</v>
@@ -12493,7 +12493,7 @@
         <v>3.13549421592915</v>
       </c>
       <c r="J205">
-        <v>0.5000017051281487</v>
+        <v>0.5046682412699931</v>
       </c>
       <c r="K205">
         <v>0.008476959802055258</v>
@@ -12552,7 +12552,7 @@
         <v>3.044522437723423</v>
       </c>
       <c r="J206">
-        <v>0.9416004106510814</v>
+        <v>0.9176814708490542</v>
       </c>
       <c r="K206">
         <v>0.008221740649019486</v>
@@ -12611,7 +12611,7 @@
         <v>2.995732273553991</v>
       </c>
       <c r="J207">
-        <v>-0.5345791096413588</v>
+        <v>-0.519475088243986</v>
       </c>
       <c r="K207">
         <v>0.01703502797960004</v>
@@ -12670,7 +12670,7 @@
         <v>2.94443897916644</v>
       </c>
       <c r="J208">
-        <v>0.3983410844041366</v>
+        <v>0.4204824049796917</v>
       </c>
       <c r="K208">
         <v>0.01263259259379889</v>
@@ -12729,7 +12729,7 @@
         <v>2.890371757896165</v>
       </c>
       <c r="J209">
-        <v>0.3622038345610618</v>
+        <v>0.3871225012748528</v>
       </c>
       <c r="K209">
         <v>0.01745479580433404</v>
@@ -12788,7 +12788,7 @@
         <v>2.890371757896165</v>
       </c>
       <c r="J210">
-        <v>-0.6377961654389382</v>
+        <v>-0.6128774987251472</v>
       </c>
       <c r="K210">
         <v>0.007179630362149244</v>
@@ -12847,7 +12847,7 @@
         <v>4.955827057601261</v>
       </c>
       <c r="J211">
-        <v>-0.4684000213783834</v>
+        <v>-0.4460620932428433</v>
       </c>
       <c r="K211">
         <v>0.01369260075030959</v>
@@ -12906,7 +12906,7 @@
         <v>4.955827057601261</v>
       </c>
       <c r="J212">
-        <v>-0.2524301564388152</v>
+        <v>-0.25818904105622</v>
       </c>
       <c r="K212">
         <v>0.01337701147943964</v>
@@ -12965,7 +12965,7 @@
         <v>2.70805020110221</v>
       </c>
       <c r="J213">
-        <v>0.3880283135610532</v>
+        <v>0.4015378914172336</v>
       </c>
       <c r="K213">
         <v>0.01985679351049148</v>
@@ -13024,7 +13024,7 @@
         <v>3.891820298110626</v>
       </c>
       <c r="J214">
-        <v>0.321532332197713</v>
+        <v>0.379453524139904</v>
       </c>
       <c r="K214">
         <v>0.009237989823839235</v>
@@ -13083,7 +13083,7 @@
         <v>2.564949357461537</v>
       </c>
       <c r="J215">
-        <v>-0.5592939993272581</v>
+        <v>-0.5352338348663198</v>
       </c>
       <c r="K215">
         <v>0.01614115575814449</v>
@@ -13142,7 +13142,7 @@
         <v>3.850147601710058</v>
       </c>
       <c r="J216">
-        <v>-0.2302765169301124</v>
+        <v>-0.2586588809707109</v>
       </c>
       <c r="K216">
         <v>0.009928447769421769</v>
@@ -13201,7 +13201,7 @@
         <v>2.484906649788</v>
       </c>
       <c r="J217">
-        <v>-0.1086163964303481</v>
+        <v>-0.1551976993523803</v>
       </c>
       <c r="K217">
         <v>0.01484755621960873</v>
@@ -13260,7 +13260,7 @@
         <v>2.484906649788</v>
       </c>
       <c r="J218">
-        <v>-0.5668020550060198</v>
+        <v>-0.5416954682636381</v>
       </c>
       <c r="K218">
         <v>0.01160688413428191</v>
@@ -13319,7 +13319,7 @@
         <v>4.927253685157205</v>
       </c>
       <c r="J219">
-        <v>0.4808169466875498</v>
+        <v>0.5246714556766108</v>
       </c>
       <c r="K219">
         <v>0.01580090245773703</v>
@@ -13378,7 +13378,7 @@
         <v>2.397895272798371</v>
       </c>
       <c r="J220">
-        <v>0.1079971978032085</v>
+        <v>0.1719645245976243</v>
       </c>
       <c r="K220">
         <v>0.0163406591555396</v>
@@ -13437,7 +13437,7 @@
         <v>4.919980925828125</v>
       </c>
       <c r="J221">
-        <v>0.4557425125760656</v>
+        <v>0.5065085385678774</v>
       </c>
       <c r="K221">
         <v>0.01675705083789814</v>
@@ -13496,7 +13496,7 @@
         <v>3.828641396489095</v>
       </c>
       <c r="J222">
-        <v>-0.915769031124181</v>
+        <v>-0.8475531497789479</v>
       </c>
       <c r="K222">
         <v>0.0005978690993331884</v>
@@ -13555,7 +13555,7 @@
         <v>2.302585092994046</v>
       </c>
       <c r="J223">
-        <v>0.07154443092396698</v>
+        <v>0.1326913962816827</v>
       </c>
       <c r="K223">
         <v>0.01331338568244903</v>
@@ -13614,7 +13614,7 @@
         <v>2.19722457733622</v>
       </c>
       <c r="J224">
-        <v>0.1874372904448936</v>
+        <v>0.2506511182985902</v>
       </c>
       <c r="K224">
         <v>0.01364129955787566</v>
@@ -13673,7 +13673,7 @@
         <v>4.897839799950911</v>
       </c>
       <c r="J225">
-        <v>0.422217193337875</v>
+        <v>0.4811718175124741</v>
       </c>
       <c r="K225">
         <v>0.01503389978551468</v>
@@ -13732,7 +13732,7 @@
         <v>2.079441541679836</v>
       </c>
       <c r="J226">
-        <v>-0.16334659435481</v>
+        <v>-0.2141418981360688</v>
       </c>
       <c r="K226">
         <v>0.02052064342823705</v>
@@ -13791,7 +13791,7 @@
         <v>2.079441541679836</v>
       </c>
       <c r="J227">
-        <v>-0.7804355410833024</v>
+        <v>-0.7185294837271758</v>
       </c>
       <c r="K227">
         <v>0.03009292576687124</v>
@@ -13850,7 +13850,7 @@
         <v>4.890349128221754</v>
       </c>
       <c r="J228">
-        <v>0.4199735737826923</v>
+        <v>0.4798505677121712</v>
       </c>
       <c r="K228">
         <v>0.01348128986368435</v>
@@ -13909,7 +13909,7 @@
         <v>3.663561646129646</v>
       </c>
       <c r="J229">
-        <v>0.6723618180816633</v>
+        <v>0.6563481587284451</v>
       </c>
       <c r="K229">
         <v>0.01597018743662269</v>
@@ -13968,7 +13968,7 @@
         <v>3.663561646129646</v>
       </c>
       <c r="J230">
-        <v>0.2023197828264726</v>
+        <v>0.2819776523988596</v>
       </c>
       <c r="K230">
         <v>0.01224243419149639</v>
@@ -14027,7 +14027,7 @@
         <v>5.393627546352362</v>
       </c>
       <c r="J231">
-        <v>-0.5687174484397902</v>
+        <v>-0.5037519108048265</v>
       </c>
       <c r="K231">
         <v>0.01080410452842532</v>
@@ -14086,7 +14086,7 @@
         <v>3.637586159726386</v>
       </c>
       <c r="J232">
-        <v>0.5679509602855504</v>
+        <v>0.5751112928875368</v>
       </c>
       <c r="K232">
         <v>0.01658230743612194</v>
@@ -14145,7 +14145,7 @@
         <v>4.852030263919617</v>
       </c>
       <c r="J233">
-        <v>-0.2600466084800154</v>
+        <v>-0.2776961311604326</v>
       </c>
       <c r="K233">
         <v>0.01840703366945876</v>
@@ -14204,7 +14204,7 @@
         <v>3.610917912644224</v>
       </c>
       <c r="J234">
-        <v>-0.9993344587628519</v>
+        <v>-0.9868492069093726</v>
       </c>
       <c r="K234">
         <v>0.04662183626310285</v>
@@ -14263,7 +14263,7 @@
         <v>3.555348061489414</v>
       </c>
       <c r="J235">
-        <v>0.4977118171410624</v>
+        <v>0.5345107704980404</v>
       </c>
       <c r="K235">
         <v>0.02337365006111781</v>
@@ -14322,7 +14322,7 @@
         <v>5.37989735354046</v>
       </c>
       <c r="J236">
-        <v>-0.6801507778141633</v>
+        <v>-0.5215098760522939</v>
       </c>
       <c r="K236">
         <v>0.01068444772089592</v>
@@ -14381,7 +14381,7 @@
         <v>3.465735902799727</v>
       </c>
       <c r="J237">
-        <v>0.5336471317068872</v>
+        <v>0.5539852991497595</v>
       </c>
       <c r="K237">
         <v>0.008655263289922971</v>
@@ -14440,7 +14440,7 @@
         <v>4.07753744390572</v>
       </c>
       <c r="J238">
-        <v>0.4165998074278335</v>
+        <v>0.495860172269427</v>
       </c>
       <c r="K238">
         <v>0.00594404599665694</v>
@@ -14499,7 +14499,7 @@
         <v>3.401197381662155</v>
       </c>
       <c r="J239">
-        <v>0.1413282233824508</v>
+        <v>0.285680823968575</v>
       </c>
       <c r="K239">
         <v>0.008863506165157339</v>
@@ -14558,7 +14558,7 @@
         <v>3.401197381662155</v>
       </c>
       <c r="J240">
-        <v>0.539481962246237</v>
+        <v>0.5563545202281039</v>
       </c>
       <c r="K240">
         <v>0.009196124394832056</v>
@@ -14617,7 +14617,7 @@
         <v>3.367295829986474</v>
       </c>
       <c r="J241">
-        <v>0.1444522286336324</v>
+        <v>0.2891739099776369</v>
       </c>
       <c r="K241">
         <v>0.001249298538226681</v>
@@ -14676,7 +14676,7 @@
         <v>3.258096538021482</v>
       </c>
       <c r="J242">
-        <v>0.3537381900600282</v>
+        <v>0.4497351608886602</v>
       </c>
       <c r="K242">
         <v>0.002152510049826591</v>
@@ -14735,7 +14735,7 @@
         <v>3.258096538021482</v>
       </c>
       <c r="J243">
-        <v>0.1043835594458096</v>
+        <v>0.2684578269985034</v>
       </c>
       <c r="K243">
         <v>0.005628180997966588</v>
@@ -14794,7 +14794,7 @@
         <v>3.951243718581428</v>
       </c>
       <c r="J244">
-        <v>-0.2727172166171705</v>
+        <v>-0.3249386337132002</v>
       </c>
       <c r="K244">
         <v>0.00606768782413912</v>
@@ -14853,7 +14853,7 @@
         <v>3.178053830347946</v>
       </c>
       <c r="J245">
-        <v>-0.2161734094823389</v>
+        <v>-0.3025352808352064</v>
       </c>
       <c r="K245">
         <v>0.00499208189869621</v>
@@ -14912,7 +14912,7 @@
         <v>3.931825632724326</v>
       </c>
       <c r="J246">
-        <v>0.2367270033754834</v>
+        <v>0.3881368110835276</v>
       </c>
       <c r="K246">
         <v>0.00334960150804102</v>
@@ -14971,7 +14971,7 @@
         <v>3.091042453358316</v>
       </c>
       <c r="J247">
-        <v>0.587419229104313</v>
+        <v>0.5788067866119178</v>
       </c>
       <c r="K247">
         <v>-0.001930517174035432</v>
@@ -15030,7 +15030,7 @@
         <v>2.995732273553991</v>
       </c>
       <c r="J248">
-        <v>0.2486743377059735</v>
+        <v>0.3603795052011395</v>
       </c>
       <c r="K248">
         <v>0.01045431120566646</v>
@@ -15089,7 +15089,7 @@
         <v>2.94443897916644</v>
       </c>
       <c r="J249">
-        <v>0.4921457785336315</v>
+        <v>0.5198980651753839</v>
       </c>
       <c r="K249">
         <v>-0.006312605283507723</v>
@@ -15148,7 +15148,7 @@
         <v>3.850147601710058</v>
       </c>
       <c r="J250">
-        <v>-0.2034145652505126</v>
+        <v>-0.2683662233301449</v>
       </c>
       <c r="K250">
         <v>0.01628375792976785</v>
@@ -15207,7 +15207,7 @@
         <v>2.890371757896165</v>
       </c>
       <c r="J251">
-        <v>0.170703383602323</v>
+        <v>0.2939262440814502</v>
       </c>
       <c r="K251">
         <v>0.004543542469603694</v>
@@ -15266,7 +15266,7 @@
         <v>2.890371757896165</v>
       </c>
       <c r="J252">
-        <v>-0.6571717155960476</v>
+        <v>-0.577765099750653</v>
       </c>
       <c r="K252">
         <v>0.0002585928746484528</v>
@@ -15325,7 +15325,7 @@
         <v>3.828641396489095</v>
       </c>
       <c r="J253">
-        <v>-0.5685858838079818</v>
+        <v>-0.5054311310475703</v>
       </c>
       <c r="K253">
         <v>0.006141273465791915</v>
@@ -15384,7 +15384,7 @@
         <v>2.833213344056216</v>
       </c>
       <c r="J254">
-        <v>0.7045957257215383</v>
+        <v>0.655886177373147</v>
       </c>
       <c r="K254">
         <v>0.002000266629109945</v>
@@ -15443,7 +15443,7 @@
         <v>2.833213344056216</v>
       </c>
       <c r="J255">
-        <v>-0.2954042742784617</v>
+        <v>-0.344113822626853</v>
       </c>
       <c r="K255">
         <v>-0.002688429312673664</v>
@@ -15502,7 +15502,7 @@
         <v>2.833213344056216</v>
       </c>
       <c r="J256">
-        <v>0.2404494412577361</v>
+        <v>0.3469040179109837</v>
       </c>
       <c r="K256">
         <v>0.003285894574260144</v>
@@ -15561,7 +15561,7 @@
         <v>2.833213344056216</v>
       </c>
       <c r="J257">
-        <v>-0.759550558742264</v>
+        <v>-0.6530959820890163</v>
       </c>
       <c r="K257">
         <v>-0.0006360828625535456</v>
@@ -15620,7 +15620,7 @@
         <v>5.288267030694535</v>
       </c>
       <c r="J258">
-        <v>0.5102578848859846</v>
+        <v>0.5776404785658158</v>
       </c>
       <c r="K258">
         <v>0.007424047164468657</v>
@@ -15679,7 +15679,7 @@
         <v>5.666426688112432</v>
       </c>
       <c r="J259">
-        <v>0.8096915113096081</v>
+        <v>0.7912374960525914</v>
       </c>
       <c r="K259">
         <v>0.002261872064187535</v>
@@ -15738,7 +15738,7 @@
         <v>3.784189633918261</v>
       </c>
       <c r="J260">
-        <v>0.2356331531416097</v>
+        <v>0.3427553836852657</v>
       </c>
       <c r="K260">
         <v>0.002217762882576392</v>
@@ -15797,7 +15797,7 @@
         <v>2.564949357461537</v>
       </c>
       <c r="J261">
-        <v>-0.8806006751014044</v>
+        <v>-0.7731546082142458</v>
       </c>
       <c r="K261">
         <v>0.00490277312089886</v>
@@ -15856,7 +15856,7 @@
         <v>2.484906649788</v>
       </c>
       <c r="J262">
-        <v>0.1898846179445148</v>
+        <v>0.2846854111662423</v>
       </c>
       <c r="K262">
         <v>0.002370655257372754</v>
@@ -15915,7 +15915,7 @@
         <v>2.484906649788</v>
       </c>
       <c r="J263">
-        <v>0.3937432599525217</v>
+        <v>0.4421593620355881</v>
       </c>
       <c r="K263">
         <v>-0.003764406698311872</v>
@@ -15974,7 +15974,7 @@
         <v>3.688879454113936</v>
       </c>
       <c r="J264">
-        <v>0.4773946947216967</v>
+        <v>0.5148809339370175</v>
       </c>
       <c r="K264">
         <v>-0.00405887667173133</v>
@@ -16033,7 +16033,7 @@
         <v>2.397895272798371</v>
       </c>
       <c r="J265">
-        <v>0.4021799184462432</v>
+        <v>0.4496323629254676</v>
       </c>
       <c r="K265">
         <v>-0.007402486407094944</v>
@@ -16092,7 +16092,7 @@
         <v>3.663561646129646</v>
       </c>
       <c r="J266">
-        <v>0.3497565095766278</v>
+        <v>0.4271465403283559</v>
       </c>
       <c r="K266">
         <v>-0.0007216536174789456</v>
@@ -16151,7 +16151,7 @@
         <v>5.262690188904886</v>
       </c>
       <c r="J267">
-        <v>0.5204457777131144</v>
+        <v>0.5833244366579737</v>
       </c>
       <c r="K267">
         <v>0.008079513472227969</v>
@@ -16210,7 +16210,7 @@
         <v>2.302585092994046</v>
       </c>
       <c r="J268">
-        <v>-0.9999999988992182</v>
+        <v>-0.9999724892508826</v>
       </c>
       <c r="K268">
         <v>0.07172738073100976</v>
@@ -16269,7 +16269,7 @@
         <v>2.302585092994046</v>
       </c>
       <c r="J269">
-        <v>-0.9999211270436986</v>
+        <v>-0.9943423827949334</v>
       </c>
       <c r="K269">
         <v>0.03910704991932459</v>
@@ -16328,7 +16328,7 @@
         <v>2.302585092994046</v>
       </c>
       <c r="J270">
-        <v>0.1742361025820371</v>
+        <v>0.2747647565209304</v>
       </c>
       <c r="K270">
         <v>-0.002747344224318778</v>
@@ -16387,7 +16387,7 @@
         <v>2.302585092994046</v>
       </c>
       <c r="J271">
-        <v>0.0576393159043225</v>
+        <v>0.1509387279443736</v>
       </c>
       <c r="K271">
         <v>0.002698592658155502</v>
@@ -16446,7 +16446,7 @@
         <v>2.302585092994046</v>
       </c>
       <c r="J272">
-        <v>-0.8257638974179629</v>
+        <v>-0.7252352434790696</v>
       </c>
       <c r="K272">
         <v>0.0001358831264779287</v>
@@ -16505,7 +16505,7 @@
         <v>5.257495372027781</v>
       </c>
       <c r="J273">
-        <v>-0.724360501544862</v>
+        <v>-0.5913071101332774</v>
       </c>
       <c r="K273">
         <v>0.01328253956089775</v>
@@ -16564,7 +16564,7 @@
         <v>5.257495372027781</v>
       </c>
       <c r="J274">
-        <v>-0.4790572905278748</v>
+        <v>-0.4166219196345544</v>
       </c>
       <c r="K274">
         <v>0.01043361049631723</v>
@@ -16623,7 +16623,7 @@
         <v>2.19722457733622</v>
       </c>
       <c r="J275">
-        <v>-0.8640105238508633</v>
+        <v>-0.7545177786317332</v>
       </c>
       <c r="K275">
         <v>0.001382861532500113</v>
@@ -16682,7 +16682,7 @@
         <v>2.19722457733622</v>
       </c>
       <c r="J276">
-        <v>0.359063252980418</v>
+        <v>0.4208258648885486</v>
       </c>
       <c r="K276">
         <v>0.00527088545832239</v>
@@ -16741,7 +16741,7 @@
         <v>5.25227342804663</v>
       </c>
       <c r="J277">
-        <v>-0.4901432914113042</v>
+        <v>-0.4213203714141399</v>
       </c>
       <c r="K277">
         <v>0.008257213772557677</v>
@@ -16800,7 +16800,7 @@
         <v>2.079441541679836</v>
       </c>
       <c r="J278">
-        <v>-0.01854169682892592</v>
+        <v>-0.06063167315865892</v>
       </c>
       <c r="K278">
         <v>0.007723641926359708</v>
@@ -16859,7 +16859,7 @@
         <v>2.079441541679836</v>
       </c>
       <c r="J279">
-        <v>0.01783076780382772</v>
+        <v>0.06698748312560536</v>
       </c>
       <c r="K279">
         <v>0.01468374273165408</v>
@@ -16918,7 +16918,7 @@
         <v>2.079441541679836</v>
       </c>
       <c r="J280">
-        <v>-0.4196683672547044</v>
+        <v>-0.4290151230368597</v>
       </c>
       <c r="K280">
         <v>-0.01476371452816012</v>
@@ -16977,7 +16977,7 @@
         <v>2.079441541679836</v>
       </c>
       <c r="J281">
-        <v>0.0824843113878802</v>
+        <v>0.1635547830667962</v>
       </c>
       <c r="K281">
         <v>0.006725210645491364</v>
@@ -17036,7 +17036,7 @@
         <v>3.58351893845611</v>
       </c>
       <c r="J282">
-        <v>0.2891087161886756</v>
+        <v>0.3674466187113851</v>
       </c>
       <c r="K282">
         <v>0.01382155660099362</v>
@@ -17095,7 +17095,7 @@
         <v>3.526360524616162</v>
       </c>
       <c r="J283">
-        <v>0.604656948802089</v>
+        <v>0.6017543440333653</v>
       </c>
       <c r="K283">
         <v>0.005844724244663424</v>
@@ -17154,7 +17154,7 @@
         <v>3.49650756146648</v>
       </c>
       <c r="J284">
-        <v>0.6282464921491941</v>
+        <v>0.6188375155694466</v>
       </c>
       <c r="K284">
         <v>0.004386073081096058</v>
@@ -17213,7 +17213,7 @@
         <v>3.401197381662155</v>
       </c>
       <c r="J285">
-        <v>0.5106140631753087</v>
+        <v>0.5325846193010902</v>
       </c>
       <c r="K285">
         <v>0.01170366797803982</v>
@@ -17272,7 +17272,7 @@
         <v>3.367295829986474</v>
       </c>
       <c r="J286">
-        <v>0.3068686875762371</v>
+        <v>0.3725048670326713</v>
       </c>
       <c r="K286">
         <v>-0.003469446328999332</v>
@@ -17331,7 +17331,7 @@
         <v>3.367295829986474</v>
       </c>
       <c r="J287">
-        <v>0.1931009190164683</v>
+        <v>0.2750406189731869</v>
       </c>
       <c r="K287">
         <v>-0.001293597114531517</v>
@@ -17390,7 +17390,7 @@
         <v>4.143134726391533</v>
       </c>
       <c r="J288">
-        <v>0.2712083677869422</v>
+        <v>0.3496252718294978</v>
       </c>
       <c r="K288">
         <v>0.003719169370698671</v>
@@ -17449,7 +17449,7 @@
         <v>3.295836866004329</v>
       </c>
       <c r="J289">
-        <v>-0.3271007922065599</v>
+        <v>-0.3474031879478262</v>
       </c>
       <c r="K289">
         <v>0.007054341635692823</v>
@@ -17508,7 +17508,7 @@
         <v>3.258096538021482</v>
       </c>
       <c r="J290">
-        <v>0.1807063254070139</v>
+        <v>0.2551143740475115</v>
       </c>
       <c r="K290">
         <v>0.005000811362820143</v>
@@ -17567,7 +17567,7 @@
         <v>3.258096538021482</v>
       </c>
       <c r="J291">
-        <v>-0.2620713395343125</v>
+        <v>-0.2942027997979861</v>
       </c>
       <c r="K291">
         <v>0.005967294558140539</v>
@@ -17626,7 +17626,7 @@
         <v>4.110873864173311</v>
       </c>
       <c r="J292">
-        <v>0.3094483683075664</v>
+        <v>0.3777229303253268</v>
       </c>
       <c r="K292">
         <v>0.003493848013476564</v>
@@ -17685,7 +17685,7 @@
         <v>4.48863636973214</v>
       </c>
       <c r="J293">
-        <v>0.4369510910632484</v>
+        <v>0.486454479083884</v>
       </c>
       <c r="K293">
         <v>0.003358013683060272</v>
@@ -17744,7 +17744,7 @@
         <v>4.477336814478207</v>
       </c>
       <c r="J294">
-        <v>0.4204087169603472</v>
+        <v>0.473631188119998</v>
       </c>
       <c r="K294">
         <v>0.008840395270904338</v>
@@ -17803,7 +17803,7 @@
         <v>4.0943445622221</v>
       </c>
       <c r="J295">
-        <v>0.4691800441845783</v>
+        <v>0.505485240924573</v>
       </c>
       <c r="K295">
         <v>0.002184717325132216</v>
@@ -17862,7 +17862,7 @@
         <v>3.218875824868201</v>
       </c>
       <c r="J296">
-        <v>0.3922962604942535</v>
+        <v>0.4349859075913384</v>
       </c>
       <c r="K296">
         <v>0.002630606563016231</v>
@@ -17921,7 +17921,7 @@
         <v>4.07753744390572</v>
       </c>
       <c r="J297">
-        <v>0.2998112281138962</v>
+        <v>0.3704915156967589</v>
       </c>
       <c r="K297">
         <v>0.002970184000396732</v>
@@ -17980,7 +17980,7 @@
         <v>4.465908118654584</v>
       </c>
       <c r="J298">
-        <v>0.4303491662488853</v>
+        <v>0.4817532313509118</v>
       </c>
       <c r="K298">
         <v>0.003270528105521361</v>
@@ -18039,7 +18039,7 @@
         <v>3.178053830347946</v>
       </c>
       <c r="J299">
-        <v>0.4103662335367582</v>
+        <v>0.4492626743441034</v>
       </c>
       <c r="K299">
         <v>0.0004635249096110114</v>
@@ -18098,7 +18098,7 @@
         <v>3.13549421592915</v>
       </c>
       <c r="J300">
-        <v>0.4202320989743944</v>
+        <v>0.4570308808382426</v>
       </c>
       <c r="K300">
         <v>-0.002214803499565897</v>
@@ -18157,7 +18157,7 @@
         <v>4.454347296253507</v>
       </c>
       <c r="J301">
-        <v>0.4356249472860642</v>
+        <v>0.4862549445230538</v>
       </c>
       <c r="K301">
         <v>0.007168516119523034</v>
@@ -18216,7 +18216,7 @@
         <v>4.060443010546419</v>
       </c>
       <c r="J302">
-        <v>0.4894561004201232</v>
+        <v>0.5213323678187852</v>
       </c>
       <c r="K302">
         <v>0.007849359508367675</v>
@@ -18275,7 +18275,7 @@
         <v>3.13549421592915</v>
       </c>
       <c r="J303">
-        <v>0.1652009899325788</v>
+        <v>0.2419816698928652</v>
       </c>
       <c r="K303">
         <v>0.002401731044434377</v>
@@ -18334,7 +18334,7 @@
         <v>4.442651256490317</v>
       </c>
       <c r="J304">
-        <v>0.440543480619219</v>
+        <v>0.489778567662436</v>
       </c>
       <c r="K304">
         <v>0.01019709836186923</v>
@@ -18393,7 +18393,7 @@
         <v>2.94443897916644</v>
       </c>
       <c r="J305">
-        <v>0.4442545369866077</v>
+        <v>0.472824617225414</v>
       </c>
       <c r="K305">
         <v>0.0007507631912902629</v>
@@ -18452,7 +18452,7 @@
         <v>2.890371757896165</v>
       </c>
       <c r="J306">
-        <v>0.2657537982823979</v>
+        <v>0.3474767532881389</v>
       </c>
       <c r="K306">
         <v>0.004259875664504462</v>
@@ -18511,7 +18511,7 @@
         <v>3.951243718581428</v>
       </c>
       <c r="J307">
-        <v>0.4091720593842839</v>
+        <v>0.4696712709256494</v>
       </c>
       <c r="K307">
         <v>0.002367285110597812</v>
@@ -18570,7 +18570,7 @@
         <v>2.833213344056216</v>
       </c>
       <c r="J308">
-        <v>0.1394457942356682</v>
+        <v>0.237853504191074</v>
       </c>
       <c r="K308">
         <v>0.007353858930518493</v>
@@ -18629,7 +18629,7 @@
         <v>5.135798437050262</v>
       </c>
       <c r="J309">
-        <v>0.4304663770964711</v>
+        <v>0.5166360652479284</v>
       </c>
       <c r="K309">
         <v>0.006560267619667</v>
@@ -18688,7 +18688,7 @@
         <v>2.70805020110221</v>
       </c>
       <c r="J310">
-        <v>0.1943159628061568</v>
+        <v>0.297941262728943</v>
       </c>
       <c r="K310">
         <v>0.0006558092708126989</v>
@@ -18747,7 +18747,7 @@
         <v>3.891820298110626</v>
       </c>
       <c r="J311">
-        <v>0.3524721524437143</v>
+        <v>0.4417327205129195</v>
       </c>
       <c r="K311">
         <v>0.01239880951207609</v>
@@ -18806,7 +18806,7 @@
         <v>3.850147601710058</v>
       </c>
       <c r="J312">
-        <v>0.2566376294751758</v>
+        <v>0.3633365333404401</v>
       </c>
       <c r="K312">
         <v>0.0105198311238415</v>
@@ -18865,7 +18865,7 @@
         <v>3.828641396489095</v>
       </c>
       <c r="J313">
-        <v>0.6310731442916605</v>
+        <v>0.6254494554046108</v>
       </c>
       <c r="K313">
         <v>-0.01652212929976423</v>
@@ -18924,7 +18924,7 @@
         <v>3.828641396489095</v>
       </c>
       <c r="J314">
-        <v>0.4086427089682325</v>
+        <v>0.4606483623915134</v>
       </c>
       <c r="K314">
         <v>0.009694028196743525</v>
@@ -18983,7 +18983,7 @@
         <v>2.302585092994046</v>
       </c>
       <c r="J315">
-        <v>0.7063716168358134</v>
+        <v>0.6666260249181222</v>
       </c>
       <c r="K315">
         <v>0.001865198098586714</v>
@@ -19042,7 +19042,7 @@
         <v>2.302585092994046</v>
       </c>
       <c r="J316">
-        <v>0.03797116701943371</v>
+        <v>0.1039796515914909</v>
       </c>
       <c r="K316">
         <v>0.02414221515801858</v>
@@ -19101,7 +19101,7 @@
         <v>3.80666248977032</v>
       </c>
       <c r="J317">
-        <v>0.6428870659134933</v>
+        <v>0.6334036536578114</v>
       </c>
       <c r="K317">
         <v>0.00938687242818324</v>
@@ -19160,7 +19160,7 @@
         <v>3.80666248977032</v>
       </c>
       <c r="J318">
-        <v>0.4151586529781602</v>
+        <v>0.467176440374692</v>
       </c>
       <c r="K318">
         <v>0.0113234103431388</v>
@@ -19219,7 +19219,7 @@
         <v>2.079441541679836</v>
       </c>
       <c r="J319">
-        <v>0.9840388492259216</v>
+        <v>0.9457078939546573</v>
       </c>
       <c r="K319">
         <v>0.03096044269799276</v>
@@ -19278,7 +19278,7 @@
         <v>3.688879454113936</v>
       </c>
       <c r="J320">
-        <v>0.4682258163981253</v>
+        <v>0.5173463253059282</v>
       </c>
       <c r="K320">
         <v>0.004149463453100584</v>
@@ -19337,7 +19337,7 @@
         <v>5.062595033026967</v>
       </c>
       <c r="J321">
-        <v>0.435045149663029</v>
+        <v>0.5168071382399188</v>
       </c>
       <c r="K321">
         <v>0.00308277580449301</v>
@@ -19396,7 +19396,7 @@
         <v>5.062595033026967</v>
       </c>
       <c r="J322">
-        <v>0.7060780409790441</v>
+        <v>0.7015205758497336</v>
       </c>
       <c r="K322">
         <v>-0.003407369334276496</v>
@@ -19455,7 +19455,7 @@
         <v>4.204692619390966</v>
       </c>
       <c r="J323">
-        <v>0.7274078958164365</v>
+        <v>0.697843010444631</v>
       </c>
       <c r="K323">
         <v>-0.0007173421421054448</v>
@@ -19514,7 +19514,7 @@
         <v>3.637586159726386</v>
       </c>
       <c r="J324">
-        <v>0.5937815261177601</v>
+        <v>0.5949308084682841</v>
       </c>
       <c r="K324">
         <v>0.01230594890065059</v>
@@ -19573,7 +19573,7 @@
         <v>4.189654742026425</v>
       </c>
       <c r="J325">
-        <v>0.2826481059688103</v>
+        <v>0.3780350831599367</v>
       </c>
       <c r="K325">
         <v>0.01766246985165622</v>
@@ -19632,7 +19632,7 @@
         <v>3.637586159726386</v>
       </c>
       <c r="J326">
-        <v>0.3678073562210249</v>
+        <v>0.4340706536229832</v>
       </c>
       <c r="K326">
         <v>0.007643582110599886</v>
@@ -19691,7 +19691,7 @@
         <v>4.158883083359671</v>
       </c>
       <c r="J327">
-        <v>0.2777604422397045</v>
+        <v>0.3716843580468724</v>
       </c>
       <c r="K327">
         <v>0.01340274166968298</v>
@@ -19750,7 +19750,7 @@
         <v>3.58351893845611</v>
       </c>
       <c r="J328">
-        <v>0.5896335207995901</v>
+        <v>0.5913112761512015</v>
       </c>
       <c r="K328">
         <v>0.01033524561960303</v>
@@ -19809,7 +19809,7 @@
         <v>3.555348061489414</v>
       </c>
       <c r="J329">
-        <v>-0.1714759108612525</v>
+        <v>-0.2352775374928286</v>
       </c>
       <c r="K329">
         <v>0.008197476542350455</v>
@@ -19868,7 +19868,7 @@
         <v>3.555348061489414</v>
       </c>
       <c r="J330">
-        <v>0.5968428145107865</v>
+        <v>0.5954760620496033</v>
       </c>
       <c r="K330">
         <v>0.01526593776129212</v>
@@ -19927,7 +19927,7 @@
         <v>4.143134726391533</v>
       </c>
       <c r="J331">
-        <v>0.2671636688493902</v>
+        <v>0.3728086368620006</v>
       </c>
       <c r="K331">
         <v>0.01597508885548727</v>
@@ -19986,7 +19986,7 @@
         <v>3.49650756146648</v>
       </c>
       <c r="J332">
-        <v>0.5946946124345049</v>
+        <v>0.5926597182179401</v>
       </c>
       <c r="K332">
         <v>0.007755700028282835</v>
@@ -20045,7 +20045,7 @@
         <v>4.07753744390572</v>
       </c>
       <c r="J333">
-        <v>-0.2136097321454535</v>
+        <v>-0.2595122615229488</v>
       </c>
       <c r="K333">
         <v>0.01304724736364418</v>
@@ -20104,7 +20104,7 @@
         <v>4.07753744390572</v>
       </c>
       <c r="J334">
-        <v>-0.3090556907863329</v>
+        <v>-0.3300752910834011</v>
       </c>
       <c r="K334">
         <v>0.01340897118501657</v>
@@ -20163,7 +20163,7 @@
         <v>4.060443010546419</v>
       </c>
       <c r="J335">
-        <v>0.4728279204717686</v>
+        <v>0.5183317454876456</v>
       </c>
       <c r="K335">
         <v>0.009832435180373262</v>
@@ -20222,7 +20222,7 @@
         <v>3.401197381662155</v>
       </c>
       <c r="J336">
-        <v>0.4209221381855741</v>
+        <v>0.4716244487601921</v>
       </c>
       <c r="K336">
         <v>0.0103543363892161</v>
@@ -20281,7 +20281,7 @@
         <v>3.401197381662155</v>
       </c>
       <c r="J337">
-        <v>0.7084638286208752</v>
+        <v>0.6726302035499052</v>
       </c>
       <c r="K337">
         <v>0.007438915037660782</v>
@@ -20340,7 +20340,7 @@
         <v>4.060443010546419</v>
       </c>
       <c r="J338">
-        <v>0.5761270666272547</v>
+        <v>0.5894596135598673</v>
       </c>
       <c r="K338">
         <v>0.01472141710516023</v>
@@ -20399,7 +20399,7 @@
         <v>4.060443010546419</v>
       </c>
       <c r="J339">
-        <v>-0.3191384166735484</v>
+        <v>-0.337688644862873</v>
       </c>
       <c r="K339">
         <v>0.01461377903030696</v>
@@ -20458,7 +20458,7 @@
         <v>3.295836866004329</v>
       </c>
       <c r="J340">
-        <v>-0.4346307317093915</v>
+        <v>-0.429691043746284</v>
       </c>
       <c r="K340">
         <v>0.01747184360615183</v>
@@ -20517,7 +20517,7 @@
         <v>3.258096538021482</v>
       </c>
       <c r="J341">
-        <v>0.5273289652390756</v>
+        <v>0.5421865756644552</v>
       </c>
       <c r="K341">
         <v>0.01519996545281817</v>
@@ -20576,7 +20576,7 @@
         <v>3.988984046564275</v>
       </c>
       <c r="J342">
-        <v>0.5510259393944789</v>
+        <v>0.5691506100712223</v>
       </c>
       <c r="K342">
         <v>0.01148946918622181</v>
@@ -20635,7 +20635,7 @@
         <v>3.218875824868201</v>
       </c>
       <c r="J343">
-        <v>-0.2154947894855636</v>
+        <v>-0.2627191260929194</v>
       </c>
       <c r="K343">
         <v>0.01089980451003214</v>
@@ -20694,7 +20694,7 @@
         <v>3.178053830347946</v>
       </c>
       <c r="J344">
-        <v>0.3195221032355349</v>
+        <v>0.3730342003114842</v>
       </c>
       <c r="K344">
         <v>0.02169149219803242</v>
@@ -20753,7 +20753,7 @@
         <v>3.178053830347946</v>
       </c>
       <c r="J345">
-        <v>-0.3506673951103536</v>
+        <v>-0.3649623563472455</v>
       </c>
       <c r="K345">
         <v>0.0133244898901952</v>
@@ -20812,7 +20812,7 @@
         <v>3.178053830347946</v>
       </c>
       <c r="J346">
-        <v>-0.6804778967644651</v>
+        <v>-0.6269657996885158</v>
       </c>
       <c r="K346">
         <v>0.01049757802893522</v>
@@ -20871,7 +20871,7 @@
         <v>3.13549421592915</v>
       </c>
       <c r="J347">
-        <v>0.3951737049625783</v>
+        <v>0.4382037306725813</v>
       </c>
       <c r="K347">
         <v>0.003851195885654825</v>
@@ -20930,7 +20930,7 @@
         <v>3.13549421592915</v>
       </c>
       <c r="J348">
-        <v>0.7357907520732587</v>
+        <v>0.7012220147648544</v>
       </c>
       <c r="K348">
         <v>-0.004252764798889794</v>
@@ -20989,7 +20989,7 @@
         <v>3.931825632724326</v>
       </c>
       <c r="J349">
-        <v>0.3584339519131323</v>
+        <v>0.4183003645414644</v>
       </c>
       <c r="K349">
         <v>0.01073360312660615</v>
@@ -21048,7 +21048,7 @@
         <v>3.091042453358316</v>
       </c>
       <c r="J350">
-        <v>-0.3907315206856443</v>
+        <v>-0.3968885308024864</v>
       </c>
       <c r="K350">
         <v>0.005617653876043249</v>
@@ -21107,7 +21107,7 @@
         <v>3.044522437723423</v>
       </c>
       <c r="J351">
-        <v>-0.6973993164021781</v>
+        <v>-0.6446452053100215</v>
       </c>
       <c r="K351">
         <v>0.02125170959803047</v>
@@ -21166,7 +21166,7 @@
         <v>4.919980925828125</v>
       </c>
       <c r="J352">
-        <v>0.4311409025535807</v>
+        <v>0.4854212411727398</v>
       </c>
       <c r="K352">
         <v>0.01038316975801781</v>
@@ -21225,7 +21225,7 @@
         <v>3.828641396489095</v>
       </c>
       <c r="J353">
-        <v>-0.5139308535627898</v>
+        <v>-0.4876519277223949</v>
       </c>
       <c r="K353">
         <v>0.01570761498020686</v>
@@ -21284,7 +21284,7 @@
         <v>2.890371757896165</v>
       </c>
       <c r="J354">
-        <v>-0.07341314750447714</v>
+        <v>-0.1170305156788649</v>
       </c>
       <c r="K354">
         <v>0.02488210120049276</v>
@@ -21343,7 +21343,7 @@
         <v>2.890371757896165</v>
       </c>
       <c r="J355">
-        <v>0.2512288254085608</v>
+        <v>0.3098293957811287</v>
       </c>
       <c r="K355">
         <v>0.01440861055976008</v>
@@ -21402,7 +21402,7 @@
         <v>2.833213344056216</v>
       </c>
       <c r="J356">
-        <v>-0.33404388749616</v>
+        <v>-0.3566061874441563</v>
       </c>
       <c r="K356">
         <v>0.01058622424382306</v>
@@ -21461,7 +21461,7 @@
         <v>2.833213344056216</v>
       </c>
       <c r="J357">
-        <v>0.2697097236004877</v>
+        <v>0.3345408013476812</v>
       </c>
       <c r="K357">
         <v>0.009195362925013623</v>
@@ -21520,7 +21520,7 @@
         <v>3.80666248977032</v>
       </c>
       <c r="J358">
-        <v>0.3872837100085972</v>
+        <v>0.4394393022090471</v>
       </c>
       <c r="K358">
         <v>0.02080582322730199</v>
@@ -21579,7 +21579,7 @@
         <v>3.784189633918261</v>
       </c>
       <c r="J359">
-        <v>-0.7443910606144274</v>
+        <v>-0.6428036238107817</v>
       </c>
       <c r="K359">
         <v>0.01723015287755454</v>
@@ -21638,7 +21638,7 @@
         <v>3.713572066704308</v>
       </c>
       <c r="J360">
-        <v>0.2957760947318601</v>
+        <v>0.3809931497859057</v>
       </c>
       <c r="K360">
         <v>0.01955415136771248</v>
@@ -21697,7 +21697,7 @@
         <v>3.713572066704308</v>
       </c>
       <c r="J361">
-        <v>0.2003425835343665</v>
+        <v>0.3025130739863157</v>
       </c>
       <c r="K361">
         <v>0.01912832749794394</v>
@@ -21756,7 +21756,7 @@
         <v>2.397895272798371</v>
       </c>
       <c r="J362">
-        <v>0.2731958687270435</v>
+        <v>0.3451127239050193</v>
       </c>
       <c r="K362">
         <v>0.008544166981117058</v>
@@ -21815,7 +21815,7 @@
         <v>4.859812404361672</v>
       </c>
       <c r="J363">
-        <v>0.4217723827016623</v>
+        <v>0.4985702096883321</v>
       </c>
       <c r="K363">
         <v>0.004486513401644347</v>
@@ -21874,7 +21874,7 @@
         <v>3.637586159726386</v>
       </c>
       <c r="J364">
-        <v>0.513344296755972</v>
+        <v>0.5385809274106559</v>
       </c>
       <c r="K364">
         <v>0.0295006591553847</v>
@@ -21933,7 +21933,7 @@
         <v>2.302585092994046</v>
       </c>
       <c r="J365">
-        <v>0.2041854940872608</v>
+        <v>0.2933983965529889</v>
       </c>
       <c r="K365">
         <v>0.01569715615796808</v>
@@ -21992,7 +21992,7 @@
         <v>3.637586159726386</v>
       </c>
       <c r="J366">
-        <v>0.2518113212887793</v>
+        <v>0.3457809013760094</v>
       </c>
       <c r="K366">
         <v>0.02148219205843675</v>
@@ -22051,7 +22051,7 @@
         <v>2.19722457733622</v>
       </c>
       <c r="J367">
-        <v>-0.145326147790755</v>
+        <v>-0.2468213021274213</v>
       </c>
       <c r="K367">
         <v>0.01646457990093112</v>
@@ -22110,7 +22110,7 @@
         <v>2.19722457733622</v>
       </c>
       <c r="J368">
-        <v>0.2273373251222565</v>
+        <v>0.3416247135772019</v>
       </c>
       <c r="K368">
         <v>0.001992233943388169</v>
@@ -22169,7 +22169,7 @@
         <v>4.852030263919617</v>
       </c>
       <c r="J369">
-        <v>0.416044501379264</v>
+        <v>0.5159989957581224</v>
       </c>
       <c r="K369">
         <v>0.00396944084302997</v>
@@ -22228,7 +22228,7 @@
         <v>2.079441541679836</v>
       </c>
       <c r="J370">
-        <v>0.3284050607840067</v>
+        <v>0.4082004888705224</v>
       </c>
       <c r="K370">
         <v>1.059394526942842e-05</v>
@@ -22287,7 +22287,7 @@
         <v>2.079441541679836</v>
       </c>
       <c r="J371">
-        <v>-0.07516447442512331</v>
+        <v>-0.1770520125717969</v>
       </c>
       <c r="K371">
         <v>0.01252794338875772</v>
@@ -22346,7 +22346,7 @@
         <v>5.384495062789089</v>
       </c>
       <c r="J372">
-        <v>0.510624241502364</v>
+        <v>0.5917507008897347</v>
       </c>
       <c r="K372">
         <v>0.006078141932654123</v>
@@ -22405,7 +22405,7 @@
         <v>5.37989735354046</v>
       </c>
       <c r="J373">
-        <v>0.5149979972128388</v>
+        <v>0.594852942937705</v>
       </c>
       <c r="K373">
         <v>0.008101426595026294</v>
@@ -22464,7 +22464,7 @@
         <v>4.127134385045092</v>
       </c>
       <c r="J374">
-        <v>0.2586419852766403</v>
+        <v>0.3944068921617405</v>
       </c>
       <c r="K374">
         <v>0.01528401920909861</v>
@@ -22523,7 +22523,7 @@
         <v>3.49650756146648</v>
       </c>
       <c r="J375">
-        <v>0.3409648017336211</v>
+        <v>0.4344487106990824</v>
       </c>
       <c r="K375">
         <v>0.009483529183361768</v>
@@ -22582,7 +22582,7 @@
         <v>3.49650756146648</v>
       </c>
       <c r="J376">
-        <v>-0.1724250105184522</v>
+        <v>-0.2543444330787044</v>
       </c>
       <c r="K376">
         <v>0.01684647664817634</v>
@@ -22641,7 +22641,7 @@
         <v>3.49650756146648</v>
       </c>
       <c r="J377">
-        <v>0.2113999298428311</v>
+        <v>0.3431280703665779</v>
       </c>
       <c r="K377">
         <v>0.008831219331987605</v>
@@ -22700,7 +22700,7 @@
         <v>4.820281565605037</v>
       </c>
       <c r="J378">
-        <v>0.47798721774276</v>
+        <v>0.5520411268188914</v>
       </c>
       <c r="K378">
         <v>1.761475676706481e-05</v>
@@ -22759,7 +22759,7 @@
         <v>4.110873864173311</v>
       </c>
       <c r="J379">
-        <v>0.3011700171728519</v>
+        <v>0.4198176553172774</v>
       </c>
       <c r="K379">
         <v>0.01217591220340338</v>
@@ -22818,7 +22818,7 @@
         <v>3.465735902799727</v>
       </c>
       <c r="J380">
-        <v>-0.5883626516762357</v>
+        <v>-0.5233178982894848</v>
       </c>
       <c r="K380">
         <v>0.02235493198666392</v>
@@ -22877,7 +22877,7 @@
         <v>3.465735902799727</v>
       </c>
       <c r="J381">
-        <v>0.4116373483237644</v>
+        <v>0.4766821017105151</v>
       </c>
       <c r="K381">
         <v>0.006647999264155179</v>
@@ -22936,7 +22936,7 @@
         <v>4.812184355372417</v>
       </c>
       <c r="J382">
-        <v>-0.3987531382490394</v>
+        <v>-0.3747532956703032</v>
       </c>
       <c r="K382">
         <v>0.001502413712769698</v>
@@ -22995,7 +22995,7 @@
         <v>4.812184355372417</v>
       </c>
       <c r="J383">
-        <v>0.5179073773285984</v>
+        <v>0.5741761835682619</v>
       </c>
       <c r="K383">
         <v>-0.00229381674287036</v>
@@ -23054,7 +23054,7 @@
         <v>3.465735902799727</v>
       </c>
       <c r="J384">
-        <v>0.2704216745890907</v>
+        <v>0.3816812313050561</v>
       </c>
       <c r="K384">
         <v>0.01176894131365116</v>
@@ -23113,7 +23113,7 @@
         <v>3.465735902799727</v>
       </c>
       <c r="J385">
-        <v>-0.1315942425638357</v>
+        <v>-0.2176179849990769</v>
       </c>
       <c r="K385">
         <v>0.01848507218854236</v>
@@ -23172,7 +23172,7 @@
         <v>4.812184355372417</v>
       </c>
       <c r="J386">
-        <v>-0.7989061949516064</v>
+        <v>-0.6422684186727838</v>
       </c>
       <c r="K386">
         <v>0.01070334520527647</v>
@@ -23231,7 +23231,7 @@
         <v>3.433987204485146</v>
       </c>
       <c r="J387">
-        <v>0.3925035921792968</v>
+        <v>0.4638689766489305</v>
       </c>
       <c r="K387">
         <v>0.01305216706976578</v>
@@ -23290,7 +23290,7 @@
         <v>3.401197381662155</v>
       </c>
       <c r="J388">
-        <v>0.5332908457245291</v>
+        <v>0.5527687744701721</v>
       </c>
       <c r="K388">
         <v>0.01707330707749777</v>
@@ -23349,7 +23349,7 @@
         <v>3.401197381662155</v>
       </c>
       <c r="J389">
-        <v>-0.2863147909729069</v>
+        <v>-0.3371148398874561</v>
       </c>
       <c r="K389">
         <v>0.01847777590901074</v>
@@ -23408,7 +23408,7 @@
         <v>3.367295829986474</v>
       </c>
       <c r="J390">
-        <v>-0.4454069489317607</v>
+        <v>-0.4350783736145006</v>
       </c>
       <c r="K390">
         <v>0.01515274686247716</v>
@@ -23467,7 +23467,7 @@
         <v>3.367295829986474</v>
       </c>
       <c r="J391">
-        <v>-0.2650703757077649</v>
+        <v>-0.324170578026062</v>
       </c>
       <c r="K391">
         <v>0.01620011289474722</v>
@@ -23526,7 +23526,7 @@
         <v>3.332204510175204</v>
       </c>
       <c r="J392">
-        <v>-0.2191050813736415</v>
+        <v>-0.2921683026440253</v>
       </c>
       <c r="K392">
         <v>0.0142076495694506</v>
@@ -23585,7 +23585,7 @@
         <v>3.332204510175204</v>
       </c>
       <c r="J393">
-        <v>-0.3890017515787461</v>
+        <v>-0.4015746148422172</v>
       </c>
       <c r="K393">
         <v>0.00850122833942259</v>
@@ -23644,7 +23644,7 @@
         <v>3.332204510175204</v>
       </c>
       <c r="J394">
-        <v>-0.09543310007383921</v>
+        <v>-0.1925065319519523</v>
       </c>
       <c r="K394">
         <v>0.008167489081689763</v>
@@ -23703,7 +23703,7 @@
         <v>4.77912349311153</v>
       </c>
       <c r="J395">
-        <v>0.6161633154138362</v>
+        <v>0.6335897558254462</v>
       </c>
       <c r="K395">
         <v>-0.001368619044909952</v>
@@ -23762,7 +23762,7 @@
         <v>4.77912349311153</v>
       </c>
       <c r="J396">
-        <v>-0.3838366845861638</v>
+        <v>-0.3664102441745538</v>
       </c>
       <c r="K396">
         <v>0.0015264673435215</v>
@@ -23821,7 +23821,7 @@
         <v>3.295836866004329</v>
       </c>
       <c r="J397">
-        <v>-0.1943032755829542</v>
+        <v>-0.2752622975797385</v>
       </c>
       <c r="K397">
         <v>0.009609393832998015</v>
@@ -23880,7 +23880,7 @@
         <v>4.770684624465665</v>
       </c>
       <c r="J398">
-        <v>0.6295280969283652</v>
+        <v>0.6412840613326399</v>
       </c>
       <c r="K398">
         <v>-0.001767501080178528</v>
@@ -23939,7 +23939,7 @@
         <v>3.258096538021482</v>
       </c>
       <c r="J399">
-        <v>-0.3575278835028531</v>
+        <v>-0.3871063240009195</v>
       </c>
       <c r="K399">
         <v>0.005696627541810186</v>
@@ -23998,7 +23998,7 @@
         <v>4.753590191106364</v>
       </c>
       <c r="J400">
-        <v>0.6461785641451904</v>
+        <v>0.6495436353654432</v>
       </c>
       <c r="K400">
         <v>-0.00312621698223603</v>
@@ -24057,7 +24057,7 @@
         <v>3.218875824868201</v>
       </c>
       <c r="J401">
-        <v>0.6818319374192682</v>
+        <v>0.6354653875780238</v>
       </c>
       <c r="K401">
         <v>0.0118300200052881</v>
@@ -24116,7 +24116,7 @@
         <v>3.218875824868201</v>
       </c>
       <c r="J402">
-        <v>0.2957863902502231</v>
+        <v>0.4123566052177696</v>
       </c>
       <c r="K402">
         <v>0.01091849962511495</v>
@@ -24175,7 +24175,7 @@
         <v>3.970291913552122</v>
       </c>
       <c r="J403">
-        <v>0.181620783025256</v>
+        <v>0.3466135571903751</v>
       </c>
       <c r="K403">
         <v>0.01418745799014049</v>
@@ -24234,7 +24234,7 @@
         <v>3.178053830347946</v>
       </c>
       <c r="J404">
-        <v>-0.5424012319010505</v>
+        <v>-0.5003679351046468</v>
       </c>
       <c r="K404">
         <v>-0.006656749241539927</v>
@@ -24293,7 +24293,7 @@
         <v>3.178053830347946</v>
       </c>
       <c r="J405">
-        <v>-0.3469112307911679</v>
+        <v>-0.3742092742284702</v>
       </c>
       <c r="K405">
         <v>0.008842531680886483</v>
@@ -24352,7 +24352,7 @@
         <v>3.178053830347946</v>
       </c>
       <c r="J406">
-        <v>0.2836199924540159</v>
+        <v>0.3819478396281105</v>
       </c>
       <c r="K406">
         <v>0.02044198462783062</v>
@@ -24411,7 +24411,7 @@
         <v>3.178053830347946</v>
       </c>
       <c r="J407">
-        <v>-0.7163800075459841</v>
+        <v>-0.6180521603718895</v>
       </c>
       <c r="K407">
         <v>0.001168775395914579</v>
@@ -24470,7 +24470,7 @@
         <v>4.736198448394496</v>
       </c>
       <c r="J408">
-        <v>0.4159206495364028</v>
+        <v>0.50243850800581</v>
       </c>
       <c r="K408">
         <v>-0.004701417826086421</v>
@@ -24529,7 +24529,7 @@
         <v>3.13549421592915</v>
       </c>
       <c r="J409">
-        <v>-0.6476031568242596</v>
+        <v>-0.572196665874398</v>
       </c>
       <c r="K409">
         <v>0.01229279634658206</v>
@@ -24588,7 +24588,7 @@
         <v>3.13549421592915</v>
       </c>
       <c r="J410">
-        <v>0.09897167406706248</v>
+        <v>0.2194668501943455</v>
       </c>
       <c r="K410">
         <v>0.01578349780888165</v>
@@ -24647,7 +24647,7 @@
         <v>3.13549421592915</v>
       </c>
       <c r="J411">
-        <v>0.1981355968115668</v>
+        <v>0.312825672007955</v>
       </c>
       <c r="K411">
         <v>0.01368719388689879</v>
@@ -24706,7 +24706,7 @@
         <v>3.13549421592915</v>
       </c>
       <c r="J412">
-        <v>-0.450107906312697</v>
+        <v>-0.4417254313559872</v>
       </c>
       <c r="K412">
         <v>0.01708264395566865</v>
@@ -24765,7 +24765,7 @@
         <v>3.13549421592915</v>
       </c>
       <c r="J413">
-        <v>-0.8018644031884332</v>
+        <v>-0.687174327992045</v>
       </c>
       <c r="K413">
         <v>0.01957241145032752</v>
@@ -24824,7 +24824,7 @@
         <v>3.13549421592915</v>
       </c>
       <c r="J414">
-        <v>0.3523968431757404</v>
+        <v>0.427803334125602</v>
       </c>
       <c r="K414">
         <v>0.01113755208930835</v>
@@ -24883,7 +24883,7 @@
         <v>6.169610732491456</v>
       </c>
       <c r="J415">
-        <v>0.7970140242058024</v>
+        <v>0.7987918620884904</v>
       </c>
       <c r="K415">
         <v>0.0110063404610178</v>
@@ -24942,7 +24942,7 @@
         <v>4.736198448394496</v>
       </c>
       <c r="J416">
-        <v>0.4994091661515975</v>
+        <v>0.5570555298508191</v>
       </c>
       <c r="K416">
         <v>-0.001153086808258076</v>
@@ -25001,7 +25001,7 @@
         <v>4.727387818712341</v>
       </c>
       <c r="J417">
-        <v>0.382773500544948</v>
+        <v>0.49383167312523</v>
       </c>
       <c r="K417">
         <v>0.0004770567921841135</v>
@@ -25060,7 +25060,7 @@
         <v>3.091042453358316</v>
       </c>
       <c r="J418">
-        <v>-0.4801500695523306</v>
+        <v>-0.4598016335077434</v>
       </c>
       <c r="K418">
         <v>0.01483321742457275</v>
@@ -25119,7 +25119,7 @@
         <v>4.718498871295094</v>
       </c>
       <c r="J419">
-        <v>0.3319539002380966</v>
+        <v>0.462411380497524</v>
       </c>
       <c r="K419">
         <v>0.004456774826062826</v>
@@ -25178,7 +25178,7 @@
         <v>3.044522437723423</v>
       </c>
       <c r="J420">
-        <v>-0.3531517410791459</v>
+        <v>-0.3848938353265932</v>
       </c>
       <c r="K420">
         <v>0.007299383284163685</v>
@@ -25237,7 +25237,7 @@
         <v>3.044522437723423</v>
       </c>
       <c r="J421">
-        <v>0.2019073228172098</v>
+        <v>0.3362951596144692</v>
       </c>
       <c r="K421">
         <v>0.01897290358447993</v>
@@ -25296,7 +25296,7 @@
         <v>3.044522437723423</v>
       </c>
       <c r="J422">
-        <v>-0.5996052085475423</v>
+        <v>-0.5313802328848654</v>
       </c>
       <c r="K422">
         <v>0.0097120399239248</v>
@@ -25355,7 +25355,7 @@
         <v>3.044522437723423</v>
       </c>
       <c r="J423">
-        <v>-0.7980926771827902</v>
+        <v>-0.6637048403855308</v>
       </c>
       <c r="K423">
         <v>0.007834564770102036</v>
@@ -25414,7 +25414,7 @@
         <v>4.709530201312334</v>
       </c>
       <c r="J424">
-        <v>-0.9361858271088008</v>
+        <v>-0.7433664260206593</v>
       </c>
       <c r="K424">
         <v>0.007759420761098063</v>
@@ -25473,7 +25473,7 @@
         <v>2.995732273553991</v>
       </c>
       <c r="J425">
-        <v>-0.7992898876057692</v>
+        <v>-0.6488062655377972</v>
       </c>
       <c r="K425">
         <v>0.01816483709927974</v>
@@ -25532,7 +25532,7 @@
         <v>6.163314804034641</v>
       </c>
       <c r="J426">
-        <v>0.7911363759491908</v>
+        <v>0.7886050522688017</v>
       </c>
       <c r="K426">
         <v>0.01017731383836035</v>
@@ -25591,7 +25591,7 @@
         <v>2.94443897916644</v>
       </c>
       <c r="J427">
-        <v>0.07284390310660675</v>
+        <v>0.2381204753607943</v>
       </c>
       <c r="K427">
         <v>0.01264329248383629</v>
@@ -25650,7 +25650,7 @@
         <v>2.94443897916644</v>
       </c>
       <c r="J428">
-        <v>0.435971588482209</v>
+        <v>0.4942906563398549</v>
       </c>
       <c r="K428">
         <v>0.01421398044817554</v>
@@ -25709,7 +25709,7 @@
         <v>5.298317366548036</v>
       </c>
       <c r="J429">
-        <v>0.4125667527744959</v>
+        <v>0.5464338545293774</v>
       </c>
       <c r="K429">
         <v>0.009659274422193581</v>
@@ -25768,7 +25768,7 @@
         <v>2.890371757896165</v>
       </c>
       <c r="J430">
-        <v>0.191846725904951</v>
+        <v>0.3449192427380277</v>
       </c>
       <c r="K430">
         <v>0.007326983610731072</v>
@@ -25827,7 +25827,7 @@
         <v>4.691347882229143</v>
       </c>
       <c r="J431">
-        <v>0.4221571975723913</v>
+        <v>0.5271785626489581</v>
       </c>
       <c r="K431">
         <v>-0.001491386998418505</v>
@@ -25886,7 +25886,7 @@
         <v>4.691347882229143</v>
       </c>
       <c r="J432">
-        <v>0.3238695262487419</v>
+        <v>0.4711687695849693</v>
       </c>
       <c r="K432">
         <v>0.0004314916185512788</v>
@@ -25945,7 +25945,7 @@
         <v>2.833213344056216</v>
       </c>
       <c r="J433">
-        <v>0.1964286091510447</v>
+        <v>0.3474737932120008</v>
       </c>
       <c r="K433">
         <v>0.00734724630188675</v>
@@ -26004,7 +26004,7 @@
         <v>6.156978985585555</v>
       </c>
       <c r="J434">
-        <v>0.795902548181932</v>
+        <v>0.7905597895144088</v>
       </c>
       <c r="K434">
         <v>0.008463930725874438</v>
@@ -26063,7 +26063,7 @@
         <v>2.772588722239781</v>
       </c>
       <c r="J435">
-        <v>0.5392623419533588</v>
+        <v>0.5476986378788945</v>
       </c>
       <c r="K435">
         <v>0.001987362900044132</v>
@@ -26122,7 +26122,7 @@
         <v>2.772588722239781</v>
       </c>
       <c r="J436">
-        <v>0.2659011262891262</v>
+        <v>0.3920088022979714</v>
       </c>
       <c r="K436">
         <v>0.003804208686493369</v>
@@ -26181,7 +26181,7 @@
         <v>2.70805020110221</v>
       </c>
       <c r="J437">
-        <v>0.8166855206751833</v>
+        <v>0.7097029540875625</v>
       </c>
       <c r="K437">
         <v>0.007929986539426868</v>
@@ -26240,7 +26240,7 @@
         <v>2.70805020110221</v>
       </c>
       <c r="J438">
-        <v>0.2537756769246015</v>
+        <v>0.3844645299833416</v>
       </c>
       <c r="K438">
         <v>0.01348652432009302</v>
@@ -26299,7 +26299,7 @@
         <v>2.70805020110221</v>
       </c>
       <c r="J439">
-        <v>-0.1833144793248167</v>
+        <v>-0.2902970459124375</v>
       </c>
       <c r="K439">
         <v>0.01669622449046023</v>
@@ -26358,7 +26358,7 @@
         <v>6.152732694704104</v>
       </c>
       <c r="J440">
-        <v>0.8083793517671365</v>
+        <v>0.7973468254976146</v>
       </c>
       <c r="K440">
         <v>0.00921129515800001</v>
@@ -26417,7 +26417,7 @@
         <v>3.663561646129646</v>
       </c>
       <c r="J441">
-        <v>-0.997219960979278</v>
+        <v>-0.9146204043353364</v>
       </c>
       <c r="K441">
         <v>0.05802592003689332</v>
@@ -26476,7 +26476,7 @@
         <v>3.663561646129646</v>
       </c>
       <c r="J442">
-        <v>-0.6879186281818074</v>
+        <v>-0.5617350626533015</v>
       </c>
       <c r="K442">
         <v>0.03433528252216896</v>
@@ -26535,7 +26535,7 @@
         <v>2.397895272798371</v>
       </c>
       <c r="J443">
-        <v>-0.216748392867818</v>
+        <v>-0.3182517754630447</v>
       </c>
       <c r="K443">
         <v>0.02136513208017684</v>
@@ -26594,7 +26594,7 @@
         <v>2.19722457733622</v>
       </c>
       <c r="J444">
-        <v>-0.1143433355445146</v>
+        <v>-0.2520632731399651</v>
       </c>
       <c r="K444">
         <v>0.0118252864755319</v>
@@ -26653,7 +26653,7 @@
         <v>4.605170185988092</v>
       </c>
       <c r="J445">
-        <v>0.4529739929166757</v>
+        <v>0.5450360830006276</v>
       </c>
       <c r="K445">
         <v>-0.007194378851477067</v>
@@ -26712,7 +26712,7 @@
         <v>3.58351893845611</v>
       </c>
       <c r="J446">
-        <v>0.4383359242918486</v>
+        <v>0.5086873103334943</v>
       </c>
       <c r="K446">
         <v>0.01900898825338219</v>
@@ -26771,7 +26771,7 @@
         <v>5.910796644040527</v>
       </c>
       <c r="J447">
-        <v>0.8277056280629072</v>
+        <v>0.7922359886954582</v>
       </c>
       <c r="K447">
         <v>0.01000855878326589</v>
@@ -26830,7 +26830,7 @@
         <v>4.543294782270004</v>
       </c>
       <c r="J448">
-        <v>0.4377680791443158</v>
+        <v>0.5366569314019801</v>
       </c>
       <c r="K448">
         <v>-0.00633534488738223</v>
@@ -26889,7 +26889,7 @@
         <v>3.401197381662155</v>
       </c>
       <c r="J449">
-        <v>-0.1768467982955213</v>
+        <v>-0.2878648944363458</v>
       </c>
       <c r="K449">
         <v>0.02471485528182936</v>
@@ -26948,7 +26948,7 @@
         <v>3.332204510175204</v>
       </c>
       <c r="J450">
-        <v>0.352251858052577</v>
+        <v>0.4619977729936112</v>
       </c>
       <c r="K450">
         <v>0.0174345279859339</v>
@@ -27007,7 +27007,7 @@
         <v>3.332204510175204</v>
       </c>
       <c r="J451">
-        <v>-0.4135345771077723</v>
+        <v>-0.4198075469925203</v>
       </c>
       <c r="K451">
         <v>0.01495840689056195</v>
@@ -27066,7 +27066,7 @@
         <v>3.332204510175204</v>
       </c>
       <c r="J452">
-        <v>-0.1937835092754721</v>
+        <v>-0.3001318995036337</v>
       </c>
       <c r="K452">
         <v>0.02340979022678314</v>
@@ -27125,7 +27125,7 @@
         <v>3.258096538021482</v>
       </c>
       <c r="J453">
-        <v>0.8133536604322359</v>
+        <v>0.7004290900645076</v>
       </c>
       <c r="K453">
         <v>0.01858842261161616</v>
@@ -27184,7 +27184,7 @@
         <v>3.258096538021482</v>
       </c>
       <c r="J454">
-        <v>0.3344805220898637</v>
+        <v>0.4533623597398226</v>
       </c>
       <c r="K454">
         <v>0.01080986424121581</v>
@@ -27243,7 +27243,7 @@
         <v>3.258096538021482</v>
       </c>
       <c r="J455">
-        <v>0.581606457644848</v>
+        <v>0.5760733768508243</v>
       </c>
       <c r="K455">
         <v>0.01170300440565425</v>
@@ -27302,7 +27302,7 @@
         <v>3.218875824868201</v>
       </c>
       <c r="J456">
-        <v>0.806445343237231</v>
+        <v>0.6946491049556908</v>
       </c>
       <c r="K456">
         <v>0.01645751537203722</v>
@@ -27361,7 +27361,7 @@
         <v>4.07753744390572</v>
       </c>
       <c r="J457">
-        <v>-0.2766031456270529</v>
+        <v>-0.335173225458157</v>
       </c>
       <c r="K457">
         <v>-0.003528928649106221</v>
@@ -27420,7 +27420,7 @@
         <v>3.13549421592915</v>
       </c>
       <c r="J458">
-        <v>-0.6874184508968533</v>
+        <v>-0.559545931793363</v>
       </c>
       <c r="K458">
         <v>0.01604321416182876</v>
@@ -27479,7 +27479,7 @@
         <v>3.13549421592915</v>
       </c>
       <c r="J459">
-        <v>-0.4242747648731533</v>
+        <v>-0.4290679997439079</v>
       </c>
       <c r="K459">
         <v>0.01422546657854867</v>
@@ -27538,7 +27538,7 @@
         <v>3.13549421592915</v>
       </c>
       <c r="J460">
-        <v>-0.1775084107277989</v>
+        <v>-0.296800402038074</v>
       </c>
       <c r="K460">
         <v>0.01547495909195516</v>
@@ -27597,7 +27597,7 @@
         <v>4.442651256490317</v>
       </c>
       <c r="J461">
-        <v>-0.5748869925915008</v>
+        <v>-0.4539083166231282</v>
       </c>
       <c r="K461">
         <v>-0.005681590162095088</v>
@@ -27656,7 +27656,7 @@
         <v>3.044522437723423</v>
       </c>
       <c r="J462">
-        <v>0.6023791822450595</v>
+        <v>0.5728843859979256</v>
       </c>
       <c r="K462">
         <v>0.01081219098328931</v>
@@ -27715,7 +27715,7 @@
         <v>3.044522437723423</v>
       </c>
       <c r="J463">
-        <v>-0.7730322267678872</v>
+        <v>-0.5636119839047682</v>
       </c>
       <c r="K463">
         <v>0.01373439353842979</v>
@@ -27774,7 +27774,7 @@
         <v>3.044522437723423</v>
       </c>
       <c r="J464">
-        <v>-0.3976208177549405</v>
+        <v>-0.4271156140020744</v>
       </c>
       <c r="K464">
         <v>0.0118263548537862</v>
@@ -27833,7 +27833,7 @@
         <v>5.877735781779639</v>
       </c>
       <c r="J465">
-        <v>0.8893875892460585</v>
+        <v>0.7909662419896211</v>
       </c>
       <c r="K465">
         <v>0.003843453570284927</v>
@@ -27892,7 +27892,7 @@
         <v>2.995732273553991</v>
       </c>
       <c r="J466">
-        <v>0.6158642814310755</v>
+        <v>0.5764826687887155</v>
       </c>
       <c r="K466">
         <v>0.006652103473947409</v>
@@ -27951,7 +27951,7 @@
         <v>3.988984046564275</v>
       </c>
       <c r="J467">
-        <v>0.3573470943180541</v>
+        <v>0.5186467974894177</v>
       </c>
       <c r="K467">
         <v>-0.01242933378526523</v>
@@ -28010,7 +28010,7 @@
         <v>4.394449154672439</v>
       </c>
       <c r="J468">
-        <v>0.2099098408130584</v>
+        <v>0.4804814539762006</v>
       </c>
       <c r="K468">
         <v>-0.01142196761646728</v>
@@ -28069,7 +28069,7 @@
         <v>2.890371757896165</v>
       </c>
       <c r="J469">
-        <v>-0.7898109563654632</v>
+        <v>-0.5598117903165547</v>
       </c>
       <c r="K469">
         <v>0.01325252194978436</v>
@@ -28128,7 +28128,7 @@
         <v>5.14166355650266</v>
       </c>
       <c r="J470">
-        <v>0.3151643365795679</v>
+        <v>0.5533631701125392</v>
       </c>
       <c r="K470">
         <v>-0.001033476215877668</v>
@@ -28187,7 +28187,7 @@
         <v>2.833213344056216</v>
       </c>
       <c r="J471">
-        <v>0.01570386429469379</v>
+        <v>0.2871979033758917</v>
       </c>
       <c r="K471">
         <v>0.0139431012720826</v>
@@ -28246,7 +28246,7 @@
         <v>2.772588722239781</v>
       </c>
       <c r="J472">
-        <v>0.7504836243057931</v>
+        <v>0.6285494778806709</v>
       </c>
       <c r="K472">
         <v>0.01454945438953833</v>
@@ -28305,7 +28305,7 @@
         <v>3.931825632724326</v>
       </c>
       <c r="J473">
-        <v>-0.3228246142823179</v>
+        <v>-0.377046357912307</v>
       </c>
       <c r="K473">
         <v>-0.009374007549209418</v>
@@ -28364,7 +28364,7 @@
         <v>4.369447852467021</v>
       </c>
       <c r="J474">
-        <v>0.1485659428357157</v>
+        <v>0.421179943759289</v>
       </c>
       <c r="K474">
         <v>-0.01019382920237375</v>
@@ -28423,7 +28423,7 @@
         <v>4.369447852467021</v>
       </c>
       <c r="J475">
-        <v>0.2776339614410889</v>
+        <v>0.4865074435118736</v>
       </c>
       <c r="K475">
         <v>-0.008304878016262958</v>
@@ -28482,7 +28482,7 @@
         <v>3.931825632724326</v>
       </c>
       <c r="J476">
-        <v>0.2121145066336874</v>
+        <v>0.4420714064619838</v>
       </c>
       <c r="K476">
         <v>-0.009844849826468847</v>
@@ -28541,7 +28541,7 @@
         <v>3.931825632724326</v>
       </c>
       <c r="J477">
-        <v>0.6771753857176821</v>
+        <v>0.622953642087693</v>
       </c>
       <c r="K477">
         <v>-0.009579048714948982</v>
@@ -28600,7 +28600,7 @@
         <v>2.639057329615258</v>
       </c>
       <c r="J478">
-        <v>0.04552039416535707</v>
+        <v>0.3041497052715768</v>
       </c>
       <c r="K478">
         <v>0.01106034892201591</v>
@@ -28659,7 +28659,7 @@
         <v>2.639057329615258</v>
       </c>
       <c r="J479">
-        <v>0.3144729435036928</v>
+        <v>0.4636005434730421</v>
       </c>
       <c r="K479">
         <v>0.008363069169067688</v>
@@ -28718,7 +28718,7 @@
         <v>5.111987788356544</v>
       </c>
       <c r="J480">
-        <v>0.3746623412956214</v>
+        <v>0.5511903403675849</v>
       </c>
       <c r="K480">
         <v>-0.002645360707513811</v>
@@ -28777,7 +28777,7 @@
         <v>3.850147601710058</v>
       </c>
       <c r="J481">
-        <v>0.8039421464155868</v>
+        <v>0.6826632271561455</v>
       </c>
       <c r="K481">
         <v>-0.02154469758671002</v>
@@ -28836,7 +28836,7 @@
         <v>2.484906649788</v>
       </c>
       <c r="J482">
-        <v>0.6125606120421588</v>
+        <v>0.5722254613428809</v>
       </c>
       <c r="K482">
         <v>-0.008165485886613397</v>
@@ -28895,7 +28895,7 @@
         <v>2.302585092994046</v>
       </c>
       <c r="J483">
-        <v>0.5701160067814022</v>
+        <v>0.551470134618731</v>
       </c>
       <c r="K483">
         <v>0.0004068916139617351</v>
@@ -28954,7 +28954,7 @@
         <v>3.80666248977032</v>
       </c>
       <c r="J484">
-        <v>0.3200466212695109</v>
+        <v>0.4856324081384298</v>
       </c>
       <c r="K484">
         <v>-0.01743486784969772</v>
@@ -29013,7 +29013,7 @@
         <v>3.761200115693562</v>
       </c>
       <c r="J485">
-        <v>0.2767364317578598</v>
+        <v>0.4664086560136482</v>
       </c>
       <c r="K485">
         <v>-0.01957990683390999</v>
@@ -29072,7 +29072,7 @@
         <v>2.079441541679836</v>
       </c>
       <c r="J486">
-        <v>0.001392015128582864</v>
+        <v>0.1489077836866858</v>
       </c>
       <c r="K486">
         <v>0.01332020090999582</v>
@@ -29131,7 +29131,7 @@
         <v>3.737669618283368</v>
       </c>
       <c r="J487">
-        <v>0.2799746456563624</v>
+        <v>0.4691800628254194</v>
       </c>
       <c r="K487">
         <v>-0.01645795811733625</v>
@@ -29190,7 +29190,7 @@
         <v>3.737669618283368</v>
       </c>
       <c r="J488">
-        <v>0.7942482650255231</v>
+        <v>0.6658294167144827</v>
       </c>
       <c r="K488">
         <v>-0.01983901064051193</v>
@@ -29249,7 +29249,7 @@
         <v>3.688879454113936</v>
       </c>
       <c r="J489">
-        <v>0.2554334953411951</v>
+        <v>0.4646800542448094</v>
       </c>
       <c r="K489">
         <v>-0.02178696512508978</v>
@@ -29308,7 +29308,7 @@
         <v>4.219507705176107</v>
       </c>
       <c r="J490">
-        <v>0.1639986217182804</v>
+        <v>0.4379561008853419</v>
       </c>
       <c r="K490">
         <v>-0.02112012422369825</v>
@@ -29367,7 +29367,7 @@
         <v>3.688879454113936</v>
       </c>
       <c r="J491">
-        <v>-0.1875572518432442</v>
+        <v>-0.3337445355659466</v>
       </c>
       <c r="K491">
         <v>-0.01645024895023322</v>
@@ -29426,7 +29426,7 @@
         <v>3.663561646129646</v>
       </c>
       <c r="J492">
-        <v>0.8099460374518239</v>
+        <v>0.6645228075929926</v>
       </c>
       <c r="K492">
         <v>-0.02227006154111394</v>
@@ -29485,7 +29485,7 @@
         <v>3.663561646129646</v>
       </c>
       <c r="J493">
-        <v>0.246233206204798</v>
+        <v>0.46016811142114</v>
       </c>
       <c r="K493">
         <v>-0.02357238306997739</v>
@@ -29544,7 +29544,7 @@
         <v>3.610917912644224</v>
       </c>
       <c r="J494">
-        <v>0.2250537684842815</v>
+        <v>0.4557803445830981</v>
       </c>
       <c r="K494">
         <v>-0.02446015216835101</v>
@@ -29603,7 +29603,7 @@
         <v>5.049856007249537</v>
       </c>
       <c r="J495">
-        <v>0.2811838961560571</v>
+        <v>0.5319809383063349</v>
       </c>
       <c r="K495">
         <v>-0.009600002121052064</v>
@@ -29662,7 +29662,7 @@
         <v>3.58351893845611</v>
       </c>
       <c r="J496">
-        <v>0.8299224169527</v>
+        <v>0.6658310246315027</v>
       </c>
       <c r="K496">
         <v>-0.02451905239458169</v>
@@ -29721,7 +29721,7 @@
         <v>3.58351893845611</v>
       </c>
       <c r="J497">
-        <v>0.2192223334966515</v>
+        <v>0.4530933739665792</v>
       </c>
       <c r="K497">
         <v>-0.02581706677049011</v>
@@ -29780,7 +29780,7 @@
         <v>5.03695260241363</v>
       </c>
       <c r="J498">
-        <v>0.2618352139886139</v>
+        <v>0.5309238124748832</v>
       </c>
       <c r="K498">
         <v>-0.005403644033566621</v>
@@ -29839,7 +29839,7 @@
         <v>4.143134726391533</v>
       </c>
       <c r="J499">
-        <v>-0.7139593300957369</v>
+        <v>-0.4987466362344286</v>
       </c>
       <c r="K499">
         <v>-0.01258182882663901</v>
@@ -29898,7 +29898,7 @@
         <v>3.555348061489414</v>
       </c>
       <c r="J500">
-        <v>0.5249894323151071</v>
+        <v>0.5578359339998661</v>
       </c>
       <c r="K500">
         <v>-0.0320510709075202</v>
@@ -29957,7 +29957,7 @@
         <v>3.555348061489414</v>
       </c>
       <c r="J501">
-        <v>0.2011463365118179</v>
+        <v>0.4518990834984243</v>
       </c>
       <c r="K501">
         <v>-0.02694588768835689</v>
@@ -30016,7 +30016,7 @@
         <v>3.555348061489414</v>
       </c>
       <c r="J502">
-        <v>0.8496621119702563</v>
+        <v>0.6675522508416214</v>
       </c>
       <c r="K502">
         <v>-0.02777951212914639</v>
@@ -30075,7 +30075,7 @@
         <v>3.526360524616162</v>
       </c>
       <c r="J503">
-        <v>0.5287501678240722</v>
+        <v>0.5582195637972173</v>
       </c>
       <c r="K503">
         <v>-0.03168956652703601</v>
@@ -30134,7 +30134,7 @@
         <v>4.127134385045092</v>
       </c>
       <c r="J504">
-        <v>-0.7136094677918365</v>
+        <v>-0.4990769202546262</v>
       </c>
       <c r="K504">
         <v>-0.01194954011040992</v>
@@ -30193,7 +30193,7 @@
         <v>3.49650756146648</v>
       </c>
       <c r="J505">
-        <v>0.1341941836780311</v>
+        <v>0.4133089044442658</v>
       </c>
       <c r="K505">
         <v>-0.02500677507063058</v>
@@ -30252,7 +30252,7 @@
         <v>4.110873864173311</v>
       </c>
       <c r="J506">
-        <v>-0.2719985965863216</v>
+        <v>-0.3619316155887637</v>
       </c>
       <c r="K506">
         <v>-0.02443482026578484</v>
@@ -30311,7 +30311,7 @@
         <v>3.49650756146648</v>
       </c>
       <c r="J507">
-        <v>0.414019863813527</v>
+        <v>0.5220345809851741</v>
       </c>
       <c r="K507">
         <v>-0.02944253265799358</v>
@@ -30370,7 +30370,7 @@
         <v>4.0943445622221</v>
       </c>
       <c r="J508">
-        <v>0.2230600519227153</v>
+        <v>0.4722499740465232</v>
       </c>
       <c r="K508">
         <v>-0.02831412492635113</v>
@@ -30429,7 +30429,7 @@
         <v>4.0943445622221</v>
       </c>
       <c r="J509">
-        <v>-0.2699786425472872</v>
+        <v>-0.3618450485446536</v>
       </c>
       <c r="K509">
         <v>-0.02270625460899039</v>
@@ -30488,7 +30488,7 @@
         <v>4.0943445622221</v>
       </c>
       <c r="J510">
-        <v>0.7300213574527128</v>
+        <v>0.6381549514553464</v>
       </c>
       <c r="K510">
         <v>-0.02962915356265961</v>
@@ -30547,7 +30547,7 @@
         <v>3.465735902799727</v>
       </c>
       <c r="J511">
-        <v>0.4125727970244744</v>
+        <v>0.5209025364472164</v>
       </c>
       <c r="K511">
         <v>-0.03275043850080438</v>
@@ -30606,7 +30606,7 @@
         <v>3.332204510175204</v>
       </c>
       <c r="J512">
-        <v>0.8046440346918823</v>
+        <v>0.6460884152079345</v>
       </c>
       <c r="K512">
         <v>-0.02774073469580528</v>
@@ -30665,7 +30665,7 @@
         <v>3.178053830347946</v>
       </c>
       <c r="J513">
-        <v>0.5584706769033858</v>
+        <v>0.5594397052487956</v>
       </c>
       <c r="K513">
         <v>-0.0350257281327293</v>
@@ -30724,7 +30724,7 @@
         <v>5.780743515792329</v>
       </c>
       <c r="J514">
-        <v>0.8980836058047561</v>
+        <v>0.7814750784045247</v>
       </c>
       <c r="K514">
         <v>-0.007492856516618282</v>
@@ -30783,7 +30783,7 @@
         <v>3.912023005428146</v>
       </c>
       <c r="J515">
-        <v>-0.2360146020627896</v>
+        <v>-0.3541358710108242</v>
       </c>
       <c r="K515">
         <v>-0.02765276354537521</v>
@@ -30842,7 +30842,7 @@
         <v>3.091042453358316</v>
       </c>
       <c r="J516">
-        <v>0.4285216484171858</v>
+        <v>0.5173391640425973</v>
       </c>
       <c r="K516">
         <v>-0.02734840270315897</v>
@@ -30901,7 +30901,7 @@
         <v>2.833213344056216</v>
       </c>
       <c r="J517">
-        <v>0.3164380203283302</v>
+        <v>0.4518559734283509</v>
       </c>
       <c r="K517">
         <v>-0.02694870902266485</v>
@@ -30960,7 +30960,7 @@
         <v>2.833213344056216</v>
       </c>
       <c r="J518">
-        <v>-0.6835619796716698</v>
+        <v>-0.5481440265716491</v>
       </c>
       <c r="K518">
         <v>-0.02485800622395605</v>
@@ -31019,7 +31019,7 @@
         <v>2.833213344056216</v>
       </c>
       <c r="J519">
-        <v>0.008922391727265722</v>
+        <v>0.1798524337835604</v>
       </c>
       <c r="K519">
         <v>-0.01053963539258211</v>
@@ -31078,7 +31078,7 @@
         <v>3.784189633918261</v>
       </c>
       <c r="J520">
-        <v>-0.1498655642244389</v>
+        <v>-0.2857129196723052</v>
       </c>
       <c r="K520">
         <v>-0.01958797933343435</v>
@@ -31137,7 +31137,7 @@
         <v>4.276666119016055</v>
       </c>
       <c r="J521">
-        <v>-0.193192125988469</v>
+        <v>-0.2981830604040847</v>
       </c>
       <c r="K521">
         <v>-0.01403587053180325</v>
@@ -31196,7 +31196,7 @@
         <v>4.262679877041315</v>
       </c>
       <c r="J522">
-        <v>-0.2142812073870465</v>
+        <v>-0.3093754249184416</v>
       </c>
       <c r="K522">
         <v>-0.01628513974315817</v>
@@ -31255,7 +31255,7 @@
         <v>2.70805020110221</v>
       </c>
       <c r="J523">
-        <v>0.02708793011026784</v>
+        <v>0.2296868602976953</v>
       </c>
       <c r="K523">
         <v>-0.02205027289925099</v>
@@ -31314,7 +31314,7 @@
         <v>2.484906649788</v>
       </c>
       <c r="J524">
-        <v>0.4356158020033281</v>
+        <v>0.4727837984961826</v>
       </c>
       <c r="K524">
         <v>-0.004428764462219403</v>
@@ -31373,7 +31373,7 @@
         <v>3.663561646129646</v>
       </c>
       <c r="J525">
-        <v>-0.6517524611614155</v>
+        <v>-0.5910702178256858</v>
       </c>
       <c r="K525">
         <v>-0.02301388429403876</v>
@@ -31432,7 +31432,7 @@
         <v>2.397895272798371</v>
       </c>
       <c r="J526">
-        <v>0.04201216517165408</v>
+        <v>0.1024376577988239</v>
       </c>
       <c r="K526">
         <v>-0.002313618817689697</v>
@@ -31491,7 +31491,7 @@
         <v>5.726847747587197</v>
       </c>
       <c r="J527">
-        <v>0.6659823723191298</v>
+        <v>0.6794193636934375</v>
       </c>
       <c r="K527">
         <v>0.006465311195492089</v>
@@ -31550,7 +31550,7 @@
         <v>5.726847747587197</v>
       </c>
       <c r="J528">
-        <v>0.5501265259565653</v>
+        <v>0.5774145121490381</v>
       </c>
       <c r="K528">
         <v>0.006817963701327305</v>
@@ -31609,7 +31609,7 @@
         <v>3.526360524616162</v>
       </c>
       <c r="J529">
-        <v>0.2241254061310192</v>
+        <v>0.2576764958455592</v>
       </c>
       <c r="K529">
         <v>-0.00351233586558615</v>
@@ -31668,7 +31668,7 @@
         <v>3.465735902799727</v>
       </c>
       <c r="J530">
-        <v>-0.5199199268303366</v>
+        <v>-0.5091195558839692</v>
       </c>
       <c r="K530">
         <v>-0.003401055722963592</v>
@@ -31727,7 +31727,7 @@
         <v>6.3578422665081</v>
       </c>
       <c r="J531">
-        <v>-0.3038190188145975</v>
+        <v>-0.3111809110955261</v>
       </c>
       <c r="K531">
         <v>0.009655495324903007</v>
@@ -31786,7 +31786,7 @@
         <v>3.433987204485146</v>
       </c>
       <c r="J532">
-        <v>-0.1907370759345385</v>
+        <v>-0.1853209349589668</v>
       </c>
       <c r="K532">
         <v>0.004890683755825971</v>
@@ -31845,7 +31845,7 @@
         <v>3.401197381662155</v>
       </c>
       <c r="J533">
-        <v>0.6560103979241396</v>
+        <v>0.6577618102741527</v>
       </c>
       <c r="K533">
         <v>-0.00207286662163169</v>
@@ -31904,7 +31904,7 @@
         <v>3.367295829986474</v>
       </c>
       <c r="J534">
-        <v>-0.2527632810442515</v>
+        <v>-0.2461782106987043</v>
       </c>
       <c r="K534">
         <v>-0.001852039851846544</v>
@@ -31963,7 +31963,7 @@
         <v>3.332204510175204</v>
       </c>
       <c r="J535">
-        <v>0.3119712327496549</v>
+        <v>0.2922754945905053</v>
       </c>
       <c r="K535">
         <v>-0.02283243836253637</v>
@@ -32022,7 +32022,7 @@
         <v>3.258096538021482</v>
       </c>
       <c r="J536">
-        <v>0.5164683245684618</v>
+        <v>0.5091352246724318</v>
       </c>
       <c r="K536">
         <v>-0.01324567564512218</v>
@@ -32081,7 +32081,7 @@
         <v>3.218875824868201</v>
       </c>
       <c r="J537">
-        <v>0.5396934712041035</v>
+        <v>0.5342901915879565</v>
       </c>
       <c r="K537">
         <v>-0.01062394083002711</v>
@@ -32140,7 +32140,7 @@
         <v>5.697093486505405</v>
       </c>
       <c r="J538">
-        <v>-0.3165230789370836</v>
+        <v>-0.3289299154769745</v>
       </c>
       <c r="K538">
         <v>0.005454769945611032</v>
@@ -32199,7 +32199,7 @@
         <v>5.697093486505405</v>
       </c>
       <c r="J539">
-        <v>0.6834769210629164</v>
+        <v>0.6710700845230255</v>
       </c>
       <c r="K539">
         <v>0.00345887939713263</v>
@@ -32258,7 +32258,7 @@
         <v>4.74493212836325</v>
       </c>
       <c r="J540">
-        <v>0.5756236043574621</v>
+        <v>0.5625949191533604</v>
       </c>
       <c r="K540">
         <v>-0.0001203672998055655</v>
@@ -32317,7 +32317,7 @@
         <v>3.951243718581428</v>
       </c>
       <c r="J541">
-        <v>0.5139038805763866</v>
+        <v>0.5013605466165159</v>
       </c>
       <c r="K541">
         <v>-0.0005529456221335105</v>
@@ -32376,7 +32376,7 @@
         <v>3.13549421592915</v>
       </c>
       <c r="J542">
-        <v>0.3546241049858976</v>
+        <v>0.3304635200718773</v>
       </c>
       <c r="K542">
         <v>-0.003243979540670724</v>
@@ -32435,7 +32435,7 @@
         <v>3.13549421592915</v>
       </c>
       <c r="J543">
-        <v>0.5641856417567979</v>
+        <v>0.560955415380582</v>
       </c>
       <c r="K543">
         <v>-0.0007987161208230231</v>
@@ -32494,7 +32494,7 @@
         <v>3.13549421592915</v>
       </c>
       <c r="J544">
-        <v>-0.4358143582432021</v>
+        <v>-0.439044584619418</v>
       </c>
       <c r="K544">
         <v>-0.01485219167978231</v>
@@ -32553,7 +32553,7 @@
         <v>3.13549421592915</v>
       </c>
       <c r="J545">
-        <v>-0.2181153006627875</v>
+        <v>-0.201342557849886</v>
       </c>
       <c r="K545">
         <v>-0.005335469730451632</v>
@@ -32612,7 +32612,7 @@
         <v>3.931825632724326</v>
       </c>
       <c r="J546">
-        <v>0.4451362271291459</v>
+        <v>0.424283753961719</v>
       </c>
       <c r="K546">
         <v>0.002998175940410366</v>
@@ -32671,7 +32671,7 @@
         <v>3.091042453358316</v>
       </c>
       <c r="J547">
-        <v>-0.4846042425987873</v>
+        <v>-0.4923971147798105</v>
       </c>
       <c r="K547">
         <v>0.01525367931392108</v>
@@ -32730,7 +32730,7 @@
         <v>3.091042453358316</v>
       </c>
       <c r="J548">
-        <v>0.5153957574012127</v>
+        <v>0.5076028852201895</v>
       </c>
       <c r="K548">
         <v>-0.009255075520356898</v>
@@ -32789,7 +32789,7 @@
         <v>3.091042453358316</v>
       </c>
       <c r="J549">
-        <v>-0.2504105411558502</v>
+        <v>-0.2364210846083963</v>
       </c>
       <c r="K549">
         <v>0.02212015589892462</v>
@@ -32848,7 +32848,7 @@
         <v>4.727387818712341</v>
       </c>
       <c r="J550">
-        <v>0.507496612677218</v>
+        <v>0.4870576693380507</v>
       </c>
       <c r="K550">
         <v>0.001944263298748916</v>
@@ -32907,7 +32907,7 @@
         <v>3.891820298110626</v>
       </c>
       <c r="J551">
-        <v>-0.2728927630715015</v>
+        <v>-0.2635526661160101</v>
       </c>
       <c r="K551">
         <v>0.01184938066694744</v>
@@ -32966,7 +32966,7 @@
         <v>2.995732273553991</v>
       </c>
       <c r="J552">
-        <v>0.6046486503252403</v>
+        <v>0.6067601014485542</v>
       </c>
       <c r="K552">
         <v>-0.01566221871300187</v>
@@ -33025,7 +33025,7 @@
         <v>2.995732273553991</v>
       </c>
       <c r="J553">
-        <v>-0.6158305800183568</v>
+        <v>-0.6420680546681898</v>
       </c>
       <c r="K553">
         <v>0.004364409184284268</v>
@@ -33084,7 +33084,7 @@
         <v>3.850147601710058</v>
       </c>
       <c r="J554">
-        <v>-0.266057938430535</v>
+        <v>-0.2541023632011502</v>
       </c>
       <c r="K554">
         <v>0.01215992047288998</v>
@@ -33143,7 +33143,7 @@
         <v>2.94443897916644</v>
       </c>
       <c r="J555">
-        <v>-0.2132317341010872</v>
+        <v>-0.1919169952762905</v>
       </c>
       <c r="K555">
         <v>0.006679271541555114</v>
@@ -33202,7 +33202,7 @@
         <v>3.828641396489095</v>
       </c>
       <c r="J556">
-        <v>-0.2859374305026783</v>
+        <v>-0.2761806171041717</v>
       </c>
       <c r="K556">
         <v>0.01050607359007161</v>
@@ -33261,7 +33261,7 @@
         <v>2.890371757896165</v>
       </c>
       <c r="J557">
-        <v>-0.238365040047924</v>
+        <v>-0.2190162774334249</v>
       </c>
       <c r="K557">
         <v>0.007091566094648713</v>
@@ -33320,7 +33320,7 @@
         <v>2.890371757896165</v>
       </c>
       <c r="J558">
-        <v>0.5106638200938668</v>
+        <v>0.5011822233236297</v>
       </c>
       <c r="K558">
         <v>-0.01220803900873837</v>
@@ -33379,7 +33379,7 @@
         <v>5.298317366548036</v>
       </c>
       <c r="J559">
-        <v>-0.2782367481733462</v>
+        <v>-0.2834015404340108</v>
       </c>
       <c r="K559">
         <v>0.008841759022384398</v>
@@ -33438,7 +33438,7 @@
         <v>5.673323267171493</v>
       </c>
       <c r="J560">
-        <v>-0.3726068338694027</v>
+        <v>-0.3984977117601235</v>
       </c>
       <c r="K560">
         <v>0.01169218695989184</v>
@@ -33497,7 +33497,7 @@
         <v>5.288267030694535</v>
       </c>
       <c r="J561">
-        <v>-0.2928437627394587</v>
+        <v>-0.3007840672617935</v>
       </c>
       <c r="K561">
         <v>0.007401016645760781</v>
@@ -33556,7 +33556,7 @@
         <v>2.772588722239781</v>
       </c>
       <c r="J562">
-        <v>0.4453419627492718</v>
+        <v>0.4265844586203151</v>
       </c>
       <c r="K562">
         <v>0.0009817478787610343</v>
@@ -33615,7 +33615,7 @@
         <v>2.772588722239781</v>
       </c>
       <c r="J563">
-        <v>-0.5546580372507282</v>
+        <v>-0.5734155413796849</v>
       </c>
       <c r="K563">
         <v>-0.005531275746941025</v>
@@ -33674,7 +33674,7 @@
         <v>3.784189633918261</v>
       </c>
       <c r="J564">
-        <v>-0.6308656759879687</v>
+        <v>-0.665704547737745</v>
       </c>
       <c r="K564">
         <v>-0.001282361202328587</v>
@@ -33733,7 +33733,7 @@
         <v>5.262690188904886</v>
       </c>
       <c r="J565">
-        <v>-0.2448301057670903</v>
+        <v>-0.2461983504817519</v>
       </c>
       <c r="K565">
         <v>0.01552359680347465</v>
@@ -33792,7 +33792,7 @@
         <v>2.079441541679836</v>
       </c>
       <c r="J566">
-        <v>0.4615314576274658</v>
+        <v>0.4513502590478722</v>
       </c>
       <c r="K566">
         <v>0.02538864223810659</v>
@@ -33851,7 +33851,7 @@
         <v>3.401197381662155</v>
       </c>
       <c r="J567">
-        <v>0.423870801392877</v>
+        <v>0.4185585598635962</v>
       </c>
       <c r="K567">
         <v>0.01324336328586512</v>
@@ -33910,7 +33910,7 @@
         <v>5.60947179518496</v>
       </c>
       <c r="J568">
-        <v>0.6442617087080881</v>
+        <v>0.6471160494518423</v>
       </c>
       <c r="K568">
         <v>0.009359325272917947</v>
@@ -33969,7 +33969,7 @@
         <v>3.332204510175204</v>
       </c>
       <c r="J569">
-        <v>-0.3097262268694277</v>
+        <v>-0.3114214298414584</v>
       </c>
       <c r="K569">
         <v>0.01148203687286455</v>
@@ -34028,7 +34028,7 @@
         <v>3.332204510175204</v>
       </c>
       <c r="J570">
-        <v>0.4798849967612489</v>
+        <v>0.4821558918264031</v>
       </c>
       <c r="K570">
         <v>0.001474445018713098</v>
@@ -34087,7 +34087,7 @@
         <v>4.127134385045092</v>
       </c>
       <c r="J571">
-        <v>0.5312907771247544</v>
+        <v>0.5334906088974632</v>
       </c>
       <c r="K571">
         <v>0.01274105673697896</v>
@@ -34146,7 +34146,7 @@
         <v>5.204006687076795</v>
       </c>
       <c r="J572">
-        <v>0.6092614788536249</v>
+        <v>0.6118451383671336</v>
       </c>
       <c r="K572">
         <v>0.0108063173385964</v>
@@ -34205,7 +34205,7 @@
         <v>4.51085950651685</v>
       </c>
       <c r="J573">
-        <v>0.5572302794981295</v>
+        <v>0.5595056562914744</v>
       </c>
       <c r="K573">
         <v>0.01167289956564418</v>
@@ -34264,7 +34264,7 @@
         <v>4.110873864173311</v>
       </c>
       <c r="J574">
-        <v>0.5404232489354952</v>
+        <v>0.5452263815083834</v>
       </c>
       <c r="K574">
         <v>0.009947386344236479</v>
@@ -34323,7 +34323,7 @@
         <v>3.295836866004329</v>
       </c>
       <c r="J575">
-        <v>0.7120406731322488</v>
+        <v>0.7068665363823944</v>
       </c>
       <c r="K575">
         <v>0.01276407629375726</v>
@@ -34382,7 +34382,7 @@
         <v>3.258096538021482</v>
       </c>
       <c r="J576">
-        <v>0.4337644789544126</v>
+        <v>0.4433451038479809</v>
       </c>
       <c r="K576">
         <v>0.002685045264104312</v>
@@ -34441,7 +34441,7 @@
         <v>4.48863636973214</v>
       </c>
       <c r="J577">
-        <v>0.5310996550424164</v>
+        <v>0.5396167943934144</v>
       </c>
       <c r="K577">
         <v>0.01009478501439504</v>
@@ -34500,7 +34500,7 @@
         <v>4.0943445622221</v>
       </c>
       <c r="J578">
-        <v>0.5002986072729746</v>
+        <v>0.50885641341123</v>
       </c>
       <c r="K578">
         <v>0.009075274913450081</v>
